--- a/c1.xlsx
+++ b/c1.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="132">
   <si>
     <t xml:space="preserve">cluster1...1</t>
   </si>
@@ -56,6 +56,36 @@
     <t xml:space="preserve">retroprimary</t>
   </si>
   <si>
+    <t xml:space="preserve">b1_2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">b1_3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">b1_4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">b1_5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">b1_6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">b2_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">b2_3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">b2_4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">b2_6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">b2_7</t>
+  </si>
+  <si>
     <t xml:space="preserve">c3r1</t>
   </si>
   <si>
@@ -299,6 +329,27 @@
     <t xml:space="preserve">pctxol</t>
   </si>
   <si>
+    <t xml:space="preserve">a7r1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">a7r2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">a7r3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">a7r4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">a7r5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">a7r6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">a7r7</t>
+  </si>
+  <si>
     <t xml:space="preserve">c_1_price</t>
   </si>
   <si>
@@ -335,7 +386,10 @@
     <t xml:space="preserve">c_1_marketplace</t>
   </si>
   <si>
-    <t xml:space="preserve">cluster1...108</t>
+    <t xml:space="preserve">numlines</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cluster1...126</t>
   </si>
   <si>
     <t xml:space="preserve">n</t>
@@ -344,7 +398,7 @@
     <t xml:space="preserve">pct</t>
   </si>
   <si>
-    <t xml:space="preserve">cluster1...111</t>
+    <t xml:space="preserve">cluster1...129</t>
   </si>
   <si>
     <t xml:space="preserve">lr</t>
@@ -1028,349 +1082,457 @@
       <c r="DJ1" t="s">
         <v>113</v>
       </c>
+      <c r="DK1" t="s">
+        <v>114</v>
+      </c>
+      <c r="DL1" t="s">
+        <v>115</v>
+      </c>
+      <c r="DM1" t="s">
+        <v>116</v>
+      </c>
+      <c r="DN1" t="s">
+        <v>117</v>
+      </c>
+      <c r="DO1" t="s">
+        <v>118</v>
+      </c>
+      <c r="DP1" t="s">
+        <v>119</v>
+      </c>
+      <c r="DQ1" t="s">
+        <v>120</v>
+      </c>
+      <c r="DR1" t="s">
+        <v>121</v>
+      </c>
+      <c r="DS1" t="s">
+        <v>122</v>
+      </c>
+      <c r="DT1" t="s">
+        <v>123</v>
+      </c>
+      <c r="DU1" t="s">
+        <v>124</v>
+      </c>
+      <c r="DV1" t="s">
+        <v>125</v>
+      </c>
+      <c r="DW1" t="s">
+        <v>126</v>
+      </c>
+      <c r="DX1" t="s">
+        <v>127</v>
+      </c>
+      <c r="DY1" t="s">
+        <v>128</v>
+      </c>
+      <c r="DZ1" t="s">
+        <v>129</v>
+      </c>
+      <c r="EA1" t="s">
+        <v>130</v>
+      </c>
+      <c r="EB1" t="s">
+        <v>131</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>2.51923076923077</v>
+        <v>3.56521739130435</v>
       </c>
       <c r="C2" t="n">
-        <v>7.40384615384615</v>
+        <v>2.97826086956522</v>
       </c>
       <c r="D2" t="n">
-        <v>3.61538461538462</v>
+        <v>5.06521739130435</v>
       </c>
       <c r="E2" t="n">
-        <v>2.80769230769231</v>
+        <v>6.93478260869565</v>
       </c>
       <c r="F2" t="n">
-        <v>0.5</v>
+        <v>0.217391304347826</v>
       </c>
       <c r="G2" t="n">
-        <v>0.5</v>
+        <v>0.108695652173913</v>
       </c>
       <c r="H2" t="n">
-        <v>0.326923076923077</v>
+        <v>1.30434782608696</v>
       </c>
       <c r="I2" t="n">
-        <v>4.51923076923077</v>
+        <v>4.45652173913043</v>
       </c>
       <c r="J2" t="n">
-        <v>1.17307692307692</v>
+        <v>1.15217391304348</v>
       </c>
       <c r="K2" t="n">
-        <v>1.32692307692308</v>
+        <v>1.30434782608696</v>
       </c>
       <c r="L2" t="n">
-        <v>1.98076923076923</v>
+        <v>2.23913043478261</v>
       </c>
       <c r="M2" t="n">
-        <v>0.945945945945946</v>
+        <v>1</v>
       </c>
       <c r="N2" t="n">
-        <v>0.0540540540540541</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0.519230769230769</v>
+        <v>3.52173913043478</v>
       </c>
       <c r="P2" t="n">
-        <v>0.365384615384615</v>
+        <v>4.19565217391304</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.192307692307692</v>
+        <v>3.21739130434783</v>
       </c>
       <c r="R2" t="n">
-        <v>0.423076923076923</v>
+        <v>3.30434782608696</v>
       </c>
       <c r="S2" t="n">
-        <v>0.288461538461538</v>
+        <v>5.95652173913043</v>
       </c>
       <c r="T2" t="n">
-        <v>0.538461538461538</v>
+        <v>5.26086956521739</v>
       </c>
       <c r="U2" t="n">
-        <v>0.173076923076923</v>
+        <v>3.47826086956522</v>
       </c>
       <c r="V2" t="n">
-        <v>0.403846153846154</v>
+        <v>4.5</v>
       </c>
       <c r="W2" t="n">
-        <v>0.230769230769231</v>
+        <v>3.45652173913043</v>
       </c>
       <c r="X2" t="n">
-        <v>0.192307692307692</v>
+        <v>4.34782608695652</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.384615384615385</v>
+        <v>0.369565217391304</v>
       </c>
       <c r="Z2" t="n">
-        <v>0.230769230769231</v>
+        <v>0.391304347826087</v>
       </c>
       <c r="AA2" t="n">
-        <v>0.365384615384615</v>
+        <v>0.108695652173913</v>
       </c>
       <c r="AB2" t="n">
-        <v>0.423076923076923</v>
+        <v>0.456521739130435</v>
       </c>
       <c r="AC2" t="n">
-        <v>0.0576923076923077</v>
+        <v>0.369565217391304</v>
       </c>
       <c r="AD2" t="n">
-        <v>1.92307692307692</v>
+        <v>0.478260869565217</v>
       </c>
       <c r="AE2" t="n">
-        <v>1.92307692307692</v>
+        <v>0.130434782608696</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.5</v>
+        <v>0.391304347826087</v>
       </c>
       <c r="AG2" t="n">
-        <v>0.942307692307692</v>
+        <v>0.0869565217391304</v>
       </c>
       <c r="AH2" t="n">
-        <v>2.61538461538462</v>
+        <v>0.152173913043478</v>
       </c>
       <c r="AI2" t="n">
-        <v>3.46153846153846</v>
+        <v>0.326086956521739</v>
       </c>
       <c r="AJ2" t="n">
-        <v>3.84615384615385</v>
+        <v>0.152173913043478</v>
       </c>
       <c r="AK2" t="n">
-        <v>4.01923076923077</v>
+        <v>0.391304347826087</v>
       </c>
       <c r="AL2" t="n">
-        <v>2.07692307692308</v>
+        <v>0.521739130434783</v>
       </c>
       <c r="AM2" t="n">
-        <v>1.75</v>
+        <v>0.391304347826087</v>
       </c>
       <c r="AN2" t="n">
-        <v>3.76923076923077</v>
+        <v>1.21739130434783</v>
       </c>
       <c r="AO2" t="n">
-        <v>0.865384615384615</v>
+        <v>0.760869565217391</v>
       </c>
       <c r="AP2" t="n">
-        <v>8.61538461538461</v>
+        <v>0.782608695652174</v>
       </c>
       <c r="AQ2" t="n">
-        <v>5.88461538461539</v>
+        <v>0.304347826086957</v>
       </c>
       <c r="AR2" t="n">
-        <v>7.96153846153846</v>
+        <v>1.56521739130435</v>
       </c>
       <c r="AS2" t="n">
-        <v>2.92307692307692</v>
+        <v>1.95652173913043</v>
       </c>
       <c r="AT2" t="n">
-        <v>6.92307692307692</v>
+        <v>2.60869565217391</v>
       </c>
       <c r="AU2" t="n">
-        <v>4.03846153846154</v>
+        <v>2.15217391304348</v>
       </c>
       <c r="AV2" t="n">
-        <v>2.57894736842105</v>
+        <v>2.08695652173913</v>
       </c>
       <c r="AW2" t="n">
-        <v>2.81818181818182</v>
+        <v>1.1304347826087</v>
       </c>
       <c r="AX2" t="n">
-        <v>4</v>
+        <v>3.34782608695652</v>
       </c>
       <c r="AY2" t="n">
-        <v>2.68</v>
+        <v>0</v>
       </c>
       <c r="AZ2" t="n">
-        <v>2.35</v>
+        <v>5.56521739130435</v>
       </c>
       <c r="BA2" t="n">
-        <v>2.84615384615385</v>
+        <v>2.95652173913043</v>
       </c>
       <c r="BB2" t="n">
-        <v>3.28571428571429</v>
+        <v>3.91304347826087</v>
       </c>
       <c r="BC2" t="n">
-        <v>2.35294117647059</v>
+        <v>2.89130434782609</v>
       </c>
       <c r="BD2" t="n">
-        <v>2.55</v>
+        <v>3.91304347826087</v>
       </c>
       <c r="BE2" t="n">
-        <v>2.65</v>
+        <v>5.47826086956522</v>
       </c>
       <c r="BF2" t="n">
-        <v>3.36842105263158</v>
+        <v>2.16666666666667</v>
       </c>
       <c r="BG2" t="n">
-        <v>2.77777777777778</v>
+        <v>2.5</v>
       </c>
       <c r="BH2" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BI2" t="n">
+        <v>2.35714285714286</v>
+      </c>
+      <c r="BJ2" t="n">
+        <v>2.57142857142857</v>
+      </c>
+      <c r="BK2" t="n">
         <v>3</v>
       </c>
-      <c r="BI2" t="n">
+      <c r="BL2" t="n">
         <v>2.5</v>
       </c>
-      <c r="BJ2" t="n">
-        <v>3.66666666666667</v>
-      </c>
-      <c r="BK2" t="n">
-        <v>2.32142857142857</v>
-      </c>
-      <c r="BL2" t="n">
-        <v>2.72222222222222</v>
-      </c>
       <c r="BM2" t="n">
+        <v>2.22222222222222</v>
+      </c>
+      <c r="BN2" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BO2" t="n">
+        <v>2.41666666666667</v>
+      </c>
+      <c r="BP2" t="n">
+        <v>3.22222222222222</v>
+      </c>
+      <c r="BQ2" t="n">
+        <v>3</v>
+      </c>
+      <c r="BR2" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="BS2" t="n">
+        <v>2.54545454545455</v>
+      </c>
+      <c r="BT2" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="BU2" t="n">
+        <v>2.5625</v>
+      </c>
+      <c r="BV2" t="n">
+        <v>2.875</v>
+      </c>
+      <c r="BW2" t="n">
+        <v>3</v>
+      </c>
+      <c r="BX2" t="n">
+        <v>2.57142857142857</v>
+      </c>
+      <c r="BY2" t="n">
+        <v>2.22222222222222</v>
+      </c>
+      <c r="BZ2" t="n">
+        <v>3.16666666666667</v>
+      </c>
+      <c r="CA2" t="n">
+        <v>0.478260869565217</v>
+      </c>
+      <c r="CB2" t="n">
+        <v>0.608695652173913</v>
+      </c>
+      <c r="CC2" t="n">
+        <v>0.326086956521739</v>
+      </c>
+      <c r="CD2" t="n">
+        <v>1.30434782608696</v>
+      </c>
+      <c r="CE2" t="n">
+        <v>0.760869565217391</v>
+      </c>
+      <c r="CF2" t="n">
+        <v>1.43478260869565</v>
+      </c>
+      <c r="CG2" t="n">
+        <v>0.608695652173913</v>
+      </c>
+      <c r="CH2" t="n">
+        <v>1.21739130434783</v>
+      </c>
+      <c r="CI2" t="n">
+        <v>1.56521739130435</v>
+      </c>
+      <c r="CJ2" t="n">
+        <v>1.30434782608696</v>
+      </c>
+      <c r="CK2" t="n">
+        <v>4.06521739130435</v>
+      </c>
+      <c r="CL2" t="n">
+        <v>1.82608695652174</v>
+      </c>
+      <c r="CM2" t="n">
+        <v>1.41304347826087</v>
+      </c>
+      <c r="CN2" t="n">
         <v>2.43478260869565</v>
       </c>
-      <c r="BN2" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="BO2" t="n">
-        <v>2.44444444444444</v>
-      </c>
-      <c r="BP2" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="BQ2" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="BR2" t="n">
-        <v>0.346153846153846</v>
-      </c>
-      <c r="BS2" t="n">
-        <v>0.173076923076923</v>
-      </c>
-      <c r="BT2" t="n">
-        <v>1.69230769230769</v>
-      </c>
-      <c r="BU2" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="BV2" t="n">
-        <v>2.19230769230769</v>
-      </c>
-      <c r="BW2" t="n">
-        <v>1.61538461538462</v>
-      </c>
-      <c r="BX2" t="n">
-        <v>1.53846153846154</v>
-      </c>
-      <c r="BY2" t="n">
-        <v>3.28846153846154</v>
-      </c>
-      <c r="BZ2" t="n">
-        <v>2.69230769230769</v>
-      </c>
-      <c r="CA2" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="CB2" t="n">
-        <v>1.61538461538462</v>
-      </c>
-      <c r="CC2" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="CD2" t="n">
-        <v>2.96153846153846</v>
-      </c>
-      <c r="CE2" t="n">
-        <v>2.01923076923077</v>
-      </c>
-      <c r="CF2" t="n">
-        <v>7.69230769230769</v>
-      </c>
-      <c r="CG2" t="n">
-        <v>4.57692307692308</v>
-      </c>
-      <c r="CH2" t="n">
-        <v>6.92307692307692</v>
-      </c>
-      <c r="CI2" t="n">
-        <v>3.28846153846154</v>
-      </c>
-      <c r="CJ2" t="n">
-        <v>5</v>
-      </c>
-      <c r="CK2" t="n">
-        <v>6.46153846153846</v>
-      </c>
-      <c r="CL2" t="n">
-        <v>0.230769230769231</v>
-      </c>
-      <c r="CM2" t="n">
-        <v>0.307692307692308</v>
-      </c>
-      <c r="CN2" t="n">
-        <v>0.384615384615385</v>
-      </c>
       <c r="CO2" t="n">
-        <v>0.211538461538462</v>
+        <v>0</v>
       </c>
       <c r="CP2" t="n">
-        <v>0.269230769230769</v>
+        <v>3.47826086956522</v>
       </c>
       <c r="CQ2" t="n">
-        <v>0.442307692307692</v>
+        <v>2.21739130434783</v>
       </c>
       <c r="CR2" t="n">
-        <v>2.64298484635023</v>
+        <v>4.30434782608696</v>
       </c>
       <c r="CS2" t="n">
-        <v>2.41004940572248</v>
+        <v>1.65217391304348</v>
       </c>
       <c r="CT2" t="n">
-        <v>2.10197969765277</v>
+        <v>3.47826086956522</v>
       </c>
       <c r="CU2" t="n">
-        <v>2.25993536378152</v>
+        <v>3.65217391304348</v>
       </c>
       <c r="CV2" t="n">
-        <v>2.0212597231828</v>
+        <v>0.173913043478261</v>
       </c>
       <c r="CW2" t="n">
-        <v>2.26316893576509</v>
+        <v>0.369565217391304</v>
       </c>
       <c r="CX2" t="n">
-        <v>2.10007396449704</v>
+        <v>0.369565217391304</v>
       </c>
       <c r="CY2" t="n">
-        <v>2.42532584936431</v>
+        <v>0.130434782608696</v>
       </c>
       <c r="CZ2" t="n">
-        <v>1.57852969679893</v>
+        <v>0.326086956521739</v>
       </c>
       <c r="DA2" t="n">
-        <v>1.86889237898853</v>
+        <v>0.434782608695652</v>
       </c>
       <c r="DB2" t="n">
-        <v>2.02134174586098</v>
+        <v>4.71739130434783</v>
       </c>
       <c r="DC2" t="n">
-        <v>1.96030123722431</v>
+        <v>3.23913043478261</v>
       </c>
       <c r="DD2" t="n">
+        <v>2.45652173913043</v>
+      </c>
+      <c r="DE2" t="n">
+        <v>4.21739130434783</v>
+      </c>
+      <c r="DF2" t="n">
+        <v>2.26086956521739</v>
+      </c>
+      <c r="DG2" t="n">
+        <v>2.93478260869565</v>
+      </c>
+      <c r="DH2" t="n">
+        <v>2.93478260869565</v>
+      </c>
+      <c r="DI2" t="n">
+        <v>2.5533988957902</v>
+      </c>
+      <c r="DJ2" t="n">
+        <v>2.33653460066504</v>
+      </c>
+      <c r="DK2" t="n">
+        <v>2.46374380450467</v>
+      </c>
+      <c r="DL2" t="n">
+        <v>2.34849896480331</v>
+      </c>
+      <c r="DM2" t="n">
+        <v>1.82509489302968</v>
+      </c>
+      <c r="DN2" t="n">
+        <v>2.07649162431771</v>
+      </c>
+      <c r="DO2" t="n">
+        <v>2.11272350837568</v>
+      </c>
+      <c r="DP2" t="n">
+        <v>2.34752964426877</v>
+      </c>
+      <c r="DQ2" t="n">
+        <v>1.53411835748792</v>
+      </c>
+      <c r="DR2" t="n">
+        <v>1.82388010540184</v>
+      </c>
+      <c r="DS2" t="n">
+        <v>1.83567507371855</v>
+      </c>
+      <c r="DT2" t="n">
+        <v>1.4162196499153</v>
+      </c>
+      <c r="DU2" t="n">
+        <v>3.8695652173913</v>
+      </c>
+      <c r="DV2" t="n">
         <v>1</v>
       </c>
-      <c r="DE2" t="n">
-        <v>52</v>
-      </c>
-      <c r="DF2" t="n">
-        <v>21.7573221757322</v>
-      </c>
-      <c r="DG2" t="n">
+      <c r="DW2" t="n">
+        <v>46</v>
+      </c>
+      <c r="DX2" t="n">
+        <v>19.2468619246862</v>
+      </c>
+      <c r="DY2" t="n">
         <v>1</v>
       </c>
-      <c r="DH2" t="n">
-        <v>49.5</v>
-      </c>
-      <c r="DI2" t="n">
-        <v>52.2222222222222</v>
-      </c>
-      <c r="DJ2" t="n">
-        <v>0.365384615384615</v>
+      <c r="DZ2" t="n">
+        <v>60.2903225806452</v>
+      </c>
+      <c r="EA2" t="n">
+        <v>41.25</v>
+      </c>
+      <c r="EB2" t="n">
+        <v>0.456521739130435</v>
       </c>
     </row>
     <row r="3">
@@ -1378,343 +1540,397 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>6.1304347826087</v>
+        <v>6.60606060606061</v>
       </c>
       <c r="C3" t="n">
-        <v>5.52173913043478</v>
+        <v>5.15151515151515</v>
       </c>
       <c r="D3" t="n">
-        <v>6.60869565217391</v>
+        <v>3.39393939393939</v>
       </c>
       <c r="E3" t="n">
-        <v>5.91304347826087</v>
+        <v>3.15151515151515</v>
       </c>
       <c r="F3" t="n">
-        <v>0.217391304347826</v>
+        <v>0.393939393939394</v>
       </c>
       <c r="G3" t="n">
-        <v>0.347826086956522</v>
+        <v>0.545454545454545</v>
       </c>
       <c r="H3" t="n">
-        <v>0.217391304347826</v>
+        <v>2.42424242424242</v>
       </c>
       <c r="I3" t="n">
-        <v>4.60869565217391</v>
+        <v>4.15151515151515</v>
       </c>
       <c r="J3" t="n">
-        <v>1.17391304347826</v>
+        <v>1.21212121212121</v>
       </c>
       <c r="K3" t="n">
-        <v>1.26086956521739</v>
+        <v>1.24242424242424</v>
       </c>
       <c r="L3" t="n">
-        <v>2.10869565217391</v>
+        <v>2.03030303030303</v>
       </c>
       <c r="M3" t="n">
-        <v>0.903225806451613</v>
+        <v>0.92</v>
       </c>
       <c r="N3" t="n">
-        <v>0.0967741935483871</v>
+        <v>0.08</v>
       </c>
       <c r="O3" t="n">
-        <v>0.369565217391304</v>
+        <v>3.6969696969697</v>
       </c>
       <c r="P3" t="n">
-        <v>0.369565217391304</v>
+        <v>5.45454545454545</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.108695652173913</v>
+        <v>3.60606060606061</v>
       </c>
       <c r="R3" t="n">
-        <v>0.434782608695652</v>
+        <v>4.33333333333333</v>
       </c>
       <c r="S3" t="n">
-        <v>0.260869565217391</v>
+        <v>6.48484848484848</v>
       </c>
       <c r="T3" t="n">
-        <v>0.282608695652174</v>
+        <v>4.24242424242424</v>
       </c>
       <c r="U3" t="n">
-        <v>0.0869565217391304</v>
+        <v>3.48484848484848</v>
       </c>
       <c r="V3" t="n">
-        <v>0.260869565217391</v>
+        <v>3.72727272727273</v>
       </c>
       <c r="W3" t="n">
-        <v>0.130434782608696</v>
+        <v>3.75757575757576</v>
       </c>
       <c r="X3" t="n">
-        <v>0.173913043478261</v>
+        <v>4.51515151515152</v>
       </c>
       <c r="Y3" t="n">
-        <v>0.260869565217391</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="Z3" t="n">
-        <v>0.260869565217391</v>
+        <v>0.303030303030303</v>
       </c>
       <c r="AA3" t="n">
-        <v>0.195652173913043</v>
+        <v>0.151515151515152</v>
       </c>
       <c r="AB3" t="n">
-        <v>0.347826086956522</v>
+        <v>0.393939393939394</v>
       </c>
       <c r="AC3" t="n">
-        <v>0.0652173913043478</v>
+        <v>0.181818181818182</v>
       </c>
       <c r="AD3" t="n">
-        <v>1.04347826086957</v>
+        <v>0.545454545454545</v>
       </c>
       <c r="AE3" t="n">
-        <v>1.30434782608696</v>
+        <v>0.181818181818182</v>
       </c>
       <c r="AF3" t="n">
-        <v>0.91304347826087</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="AG3" t="n">
-        <v>0.760869565217391</v>
+        <v>0.181818181818182</v>
       </c>
       <c r="AH3" t="n">
-        <v>1.91304347826087</v>
+        <v>0.272727272727273</v>
       </c>
       <c r="AI3" t="n">
-        <v>3.32608695652174</v>
+        <v>0.515151515151515</v>
       </c>
       <c r="AJ3" t="n">
-        <v>3.26086956521739</v>
+        <v>0.242424242424242</v>
       </c>
       <c r="AK3" t="n">
-        <v>2.39130434782609</v>
+        <v>0.272727272727273</v>
       </c>
       <c r="AL3" t="n">
-        <v>2.34782608695652</v>
+        <v>0.242424242424242</v>
       </c>
       <c r="AM3" t="n">
-        <v>1.41304347826087</v>
+        <v>0.181818181818182</v>
       </c>
       <c r="AN3" t="n">
-        <v>1.52173913043478</v>
+        <v>2.06060606060606</v>
       </c>
       <c r="AO3" t="n">
-        <v>0.326086956521739</v>
+        <v>1.06060606060606</v>
       </c>
       <c r="AP3" t="n">
-        <v>7.30434782608696</v>
+        <v>1.27272727272727</v>
       </c>
       <c r="AQ3" t="n">
-        <v>4.43478260869565</v>
+        <v>0.424242424242424</v>
       </c>
       <c r="AR3" t="n">
-        <v>4.69565217391304</v>
+        <v>2.18181818181818</v>
       </c>
       <c r="AS3" t="n">
-        <v>6.19565217391304</v>
+        <v>4.09090909090909</v>
       </c>
       <c r="AT3" t="n">
-        <v>3.04347826086957</v>
+        <v>4.24242424242424</v>
       </c>
       <c r="AU3" t="n">
-        <v>4.10869565217391</v>
+        <v>4</v>
       </c>
       <c r="AV3" t="n">
-        <v>2.66666666666667</v>
+        <v>3.27272727272727</v>
       </c>
       <c r="AW3" t="n">
-        <v>2.75</v>
+        <v>3.15151515151515</v>
       </c>
       <c r="AX3" t="n">
+        <v>4.66666666666667</v>
+      </c>
+      <c r="AY3" t="n">
+        <v>0.909090909090909</v>
+      </c>
+      <c r="AZ3" t="n">
+        <v>8.72727272727273</v>
+      </c>
+      <c r="BA3" t="n">
+        <v>7.72727272727273</v>
+      </c>
+      <c r="BB3" t="n">
+        <v>7.09090909090909</v>
+      </c>
+      <c r="BC3" t="n">
+        <v>6.90909090909091</v>
+      </c>
+      <c r="BD3" t="n">
+        <v>6.66666666666667</v>
+      </c>
+      <c r="BE3" t="n">
+        <v>9.54545454545454</v>
+      </c>
+      <c r="BF3" t="n">
         <v>3</v>
       </c>
-      <c r="AY3" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="AZ3" t="n">
+      <c r="BG3" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH3" t="n">
         <v>2.5</v>
       </c>
-      <c r="BA3" t="n">
-        <v>3</v>
-      </c>
-      <c r="BB3" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="BC3" t="n">
-        <v>2.45454545454545</v>
-      </c>
-      <c r="BD3" t="n">
-        <v>2.64705882352941</v>
-      </c>
-      <c r="BE3" t="n">
-        <v>2.93333333333333</v>
-      </c>
-      <c r="BF3" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="BG3" t="n">
+      <c r="BI3" t="n">
+        <v>2.70588235294118</v>
+      </c>
+      <c r="BJ3" t="n">
+        <v>2.85714285714286</v>
+      </c>
+      <c r="BK3" t="n">
+        <v>2.28571428571429</v>
+      </c>
+      <c r="BL3" t="n">
+        <v>2</v>
+      </c>
+      <c r="BM3" t="n">
         <v>2.44444444444444</v>
       </c>
-      <c r="BH3" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="BI3" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="BJ3" t="n">
-        <v>2</v>
-      </c>
-      <c r="BK3" t="n">
-        <v>2.47619047619048</v>
-      </c>
-      <c r="BL3" t="n">
-        <v>2.66666666666667</v>
-      </c>
-      <c r="BM3" t="n">
-        <v>2.75</v>
-      </c>
       <c r="BN3" t="n">
-        <v>2.53333333333333</v>
+        <v>2.2</v>
       </c>
       <c r="BO3" t="n">
         <v>2.57142857142857</v>
       </c>
       <c r="BP3" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="BQ3" t="n">
+        <v>2.33333333333333</v>
+      </c>
+      <c r="BR3" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BS3" t="n">
+        <v>2.45454545454545</v>
+      </c>
+      <c r="BT3" t="n">
         <v>3</v>
       </c>
-      <c r="BQ3" t="n">
-        <v>0.239130434782609</v>
-      </c>
-      <c r="BR3" t="n">
-        <v>0.391304347826087</v>
-      </c>
-      <c r="BS3" t="n">
-        <v>0.195652173913043</v>
-      </c>
-      <c r="BT3" t="n">
-        <v>1.39130434782609</v>
-      </c>
       <c r="BU3" t="n">
-        <v>0.978260869565217</v>
+        <v>2.61111111111111</v>
       </c>
       <c r="BV3" t="n">
-        <v>1.30434782608696</v>
+        <v>2.86666666666667</v>
       </c>
       <c r="BW3" t="n">
-        <v>1.06521739130435</v>
+        <v>2.69230769230769</v>
       </c>
       <c r="BX3" t="n">
-        <v>1.39130434782609</v>
+        <v>2.33333333333333</v>
       </c>
       <c r="BY3" t="n">
-        <v>1.56521739130435</v>
+        <v>2.90909090909091</v>
       </c>
       <c r="BZ3" t="n">
-        <v>2.39130434782609</v>
+        <v>3.2</v>
       </c>
       <c r="CA3" t="n">
-        <v>3.34782608695652</v>
+        <v>0.212121212121212</v>
       </c>
       <c r="CB3" t="n">
-        <v>2.34782608695652</v>
+        <v>0.424242424242424</v>
       </c>
       <c r="CC3" t="n">
-        <v>1.97826086956522</v>
+        <v>0.181818181818182</v>
       </c>
       <c r="CD3" t="n">
-        <v>2.1304347826087</v>
+        <v>2.06060606060606</v>
       </c>
       <c r="CE3" t="n">
-        <v>0.978260869565217</v>
+        <v>0.909090909090909</v>
       </c>
       <c r="CF3" t="n">
-        <v>4.8695652173913</v>
+        <v>1.81818181818182</v>
       </c>
       <c r="CG3" t="n">
-        <v>4.06521739130435</v>
+        <v>1.06060606060606</v>
       </c>
       <c r="CH3" t="n">
-        <v>5.08695652173913</v>
+        <v>2.42424242424242</v>
       </c>
       <c r="CI3" t="n">
-        <v>4.54347826086957</v>
+        <v>2.18181818181818</v>
       </c>
       <c r="CJ3" t="n">
-        <v>3.47826086956522</v>
+        <v>2.72727272727273</v>
       </c>
       <c r="CK3" t="n">
-        <v>4.56521739130435</v>
+        <v>4.66666666666667</v>
       </c>
       <c r="CL3" t="n">
-        <v>0.326086956521739</v>
+        <v>2.54545454545455</v>
       </c>
       <c r="CM3" t="n">
-        <v>0.326086956521739</v>
+        <v>3.93939393939394</v>
       </c>
       <c r="CN3" t="n">
-        <v>0.326086956521739</v>
+        <v>4.24242424242424</v>
       </c>
       <c r="CO3" t="n">
-        <v>0.130434782608696</v>
+        <v>1.36363636363636</v>
       </c>
       <c r="CP3" t="n">
-        <v>0.391304347826087</v>
+        <v>5.81818181818182</v>
       </c>
       <c r="CQ3" t="n">
-        <v>0.391304347826087</v>
+        <v>5.66666666666667</v>
       </c>
       <c r="CR3" t="n">
-        <v>2.46433747412008</v>
+        <v>4.36363636363636</v>
       </c>
       <c r="CS3" t="n">
-        <v>2.31390614216701</v>
+        <v>5.75757575757576</v>
       </c>
       <c r="CT3" t="n">
-        <v>2.36896135265701</v>
+        <v>4.84848484848485</v>
       </c>
       <c r="CU3" t="n">
-        <v>2.13625776397516</v>
+        <v>5.72727272727273</v>
       </c>
       <c r="CV3" t="n">
-        <v>2.01256901311249</v>
+        <v>0.151515151515152</v>
       </c>
       <c r="CW3" t="n">
-        <v>2.22323153899241</v>
+        <v>0.393939393939394</v>
       </c>
       <c r="CX3" t="n">
-        <v>2.14023464458247</v>
+        <v>0.424242424242424</v>
       </c>
       <c r="CY3" t="n">
-        <v>2.21174085576259</v>
+        <v>0.303030303030303</v>
       </c>
       <c r="CZ3" t="n">
-        <v>1.69760179434092</v>
+        <v>0.0909090909090909</v>
       </c>
       <c r="DA3" t="n">
-        <v>1.96466528640442</v>
+        <v>0.515151515151515</v>
       </c>
       <c r="DB3" t="n">
-        <v>1.91444962042788</v>
+        <v>4.63636363636364</v>
       </c>
       <c r="DC3" t="n">
-        <v>1.80578847481021</v>
+        <v>3.81818181818182</v>
       </c>
       <c r="DD3" t="n">
+        <v>3.3030303030303</v>
+      </c>
+      <c r="DE3" t="n">
+        <v>4.48484848484848</v>
+      </c>
+      <c r="DF3" t="n">
+        <v>3.63636363636364</v>
+      </c>
+      <c r="DG3" t="n">
+        <v>3.63636363636364</v>
+      </c>
+      <c r="DH3" t="n">
+        <v>3.57575757575758</v>
+      </c>
+      <c r="DI3" t="n">
+        <v>2.60741178013905</v>
+      </c>
+      <c r="DJ3" t="n">
+        <v>2.3810421901331</v>
+      </c>
+      <c r="DK3" t="n">
+        <v>2.45989905894212</v>
+      </c>
+      <c r="DL3" t="n">
+        <v>2.41045209442339</v>
+      </c>
+      <c r="DM3" t="n">
+        <v>2.10260009793503</v>
+      </c>
+      <c r="DN3" t="n">
+        <v>2.29904433684338</v>
+      </c>
+      <c r="DO3" t="n">
+        <v>2.29942728722633</v>
+      </c>
+      <c r="DP3" t="n">
+        <v>2.54720824098815</v>
+      </c>
+      <c r="DQ3" t="n">
+        <v>1.7457213971568</v>
+      </c>
+      <c r="DR3" t="n">
+        <v>2.07347649692147</v>
+      </c>
+      <c r="DS3" t="n">
+        <v>2.04335860843038</v>
+      </c>
+      <c r="DT3" t="n">
+        <v>1.86888913850636</v>
+      </c>
+      <c r="DU3" t="n">
+        <v>5.96969696969697</v>
+      </c>
+      <c r="DV3" t="n">
         <v>2</v>
       </c>
-      <c r="DE3" t="n">
-        <v>46</v>
-      </c>
-      <c r="DF3" t="n">
-        <v>19.2468619246862</v>
-      </c>
-      <c r="DG3" t="n">
+      <c r="DW3" t="n">
+        <v>33</v>
+      </c>
+      <c r="DX3" t="n">
+        <v>13.8075313807531</v>
+      </c>
+      <c r="DY3" t="n">
         <v>2</v>
       </c>
-      <c r="DH3" t="n">
-        <v>56.3</v>
-      </c>
-      <c r="DI3" t="n">
-        <v>41.40625</v>
-      </c>
-      <c r="DJ3" t="n">
-        <v>0.326086956521739</v>
+      <c r="DZ3" t="n">
+        <v>51.375</v>
+      </c>
+      <c r="EA3" t="n">
+        <v>45.75</v>
+      </c>
+      <c r="EB3" t="n">
+        <v>0.333333333333333</v>
       </c>
     </row>
     <row r="4">
@@ -1722,343 +1938,397 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>6.60606060606061</v>
+        <v>2.66129032258065</v>
       </c>
       <c r="C4" t="n">
-        <v>5.15151515151515</v>
+        <v>3.33870967741935</v>
       </c>
       <c r="D4" t="n">
-        <v>3.39393939393939</v>
+        <v>4.25806451612903</v>
       </c>
       <c r="E4" t="n">
-        <v>3.15151515151515</v>
+        <v>2.54838709677419</v>
       </c>
       <c r="F4" t="n">
-        <v>0.393939393939394</v>
+        <v>0.419354838709677</v>
       </c>
       <c r="G4" t="n">
-        <v>0.545454545454545</v>
+        <v>0.564516129032258</v>
       </c>
       <c r="H4" t="n">
-        <v>0.242424242424242</v>
+        <v>2.25806451612903</v>
       </c>
       <c r="I4" t="n">
-        <v>4.15151515151515</v>
+        <v>4.25806451612903</v>
       </c>
       <c r="J4" t="n">
-        <v>1.21212121212121</v>
+        <v>1.20967741935484</v>
       </c>
       <c r="K4" t="n">
-        <v>1.24242424242424</v>
+        <v>1.30645161290323</v>
       </c>
       <c r="L4" t="n">
-        <v>2.03030303030303</v>
+        <v>2.06451612903226</v>
       </c>
       <c r="M4" t="n">
-        <v>0.92</v>
+        <v>0.928571428571429</v>
       </c>
       <c r="N4" t="n">
-        <v>0.08</v>
+        <v>0.0714285714285714</v>
       </c>
       <c r="O4" t="n">
-        <v>0.333333333333333</v>
+        <v>2.53225806451613</v>
       </c>
       <c r="P4" t="n">
-        <v>0.303030303030303</v>
+        <v>4.24193548387097</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.151515151515152</v>
+        <v>3.41935483870968</v>
       </c>
       <c r="R4" t="n">
-        <v>0.393939393939394</v>
+        <v>2.95161290322581</v>
       </c>
       <c r="S4" t="n">
-        <v>0.181818181818182</v>
+        <v>5.41935483870968</v>
       </c>
       <c r="T4" t="n">
-        <v>0.545454545454545</v>
+        <v>4.35483870967742</v>
       </c>
       <c r="U4" t="n">
-        <v>0.181818181818182</v>
+        <v>3.30645161290323</v>
       </c>
       <c r="V4" t="n">
-        <v>0.333333333333333</v>
+        <v>3.2741935483871</v>
       </c>
       <c r="W4" t="n">
-        <v>0.181818181818182</v>
+        <v>3.12903225806452</v>
       </c>
       <c r="X4" t="n">
-        <v>0.272727272727273</v>
+        <v>3.38709677419355</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.515151515151515</v>
+        <v>0.451612903225806</v>
       </c>
       <c r="Z4" t="n">
-        <v>0.242424242424242</v>
+        <v>0.403225806451613</v>
       </c>
       <c r="AA4" t="n">
-        <v>0.272727272727273</v>
+        <v>0.209677419354839</v>
       </c>
       <c r="AB4" t="n">
-        <v>0.242424242424242</v>
+        <v>0.451612903225806</v>
       </c>
       <c r="AC4" t="n">
-        <v>0.181818181818182</v>
+        <v>0.225806451612903</v>
       </c>
       <c r="AD4" t="n">
-        <v>2.06060606060606</v>
+        <v>0.5</v>
       </c>
       <c r="AE4" t="n">
-        <v>1.06060606060606</v>
+        <v>0.225806451612903</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.27272727272727</v>
+        <v>0.419354838709677</v>
       </c>
       <c r="AG4" t="n">
-        <v>0.424242424242424</v>
+        <v>0.193548387096774</v>
       </c>
       <c r="AH4" t="n">
-        <v>2.18181818181818</v>
+        <v>0.241935483870968</v>
       </c>
       <c r="AI4" t="n">
-        <v>4.09090909090909</v>
+        <v>0.387096774193548</v>
       </c>
       <c r="AJ4" t="n">
-        <v>4.24242424242424</v>
+        <v>0.193548387096774</v>
       </c>
       <c r="AK4" t="n">
-        <v>4</v>
+        <v>0.193548387096774</v>
       </c>
       <c r="AL4" t="n">
-        <v>3.27272727272727</v>
+        <v>0.290322580645161</v>
       </c>
       <c r="AM4" t="n">
-        <v>3.15151515151515</v>
+        <v>0.338709677419355</v>
       </c>
       <c r="AN4" t="n">
-        <v>4.66666666666667</v>
+        <v>1.48387096774194</v>
       </c>
       <c r="AO4" t="n">
-        <v>0.909090909090909</v>
+        <v>1.37096774193548</v>
       </c>
       <c r="AP4" t="n">
-        <v>8.72727272727273</v>
+        <v>1.54838709677419</v>
       </c>
       <c r="AQ4" t="n">
-        <v>7.72727272727273</v>
+        <v>0.903225806451613</v>
       </c>
       <c r="AR4" t="n">
-        <v>7.09090909090909</v>
+        <v>2.70967741935484</v>
       </c>
       <c r="AS4" t="n">
-        <v>6.90909090909091</v>
+        <v>5.08064516129032</v>
       </c>
       <c r="AT4" t="n">
-        <v>6.66666666666667</v>
+        <v>5.64516129032258</v>
       </c>
       <c r="AU4" t="n">
-        <v>9.54545454545454</v>
+        <v>4.08064516129032</v>
       </c>
       <c r="AV4" t="n">
+        <v>4.06451612903226</v>
+      </c>
+      <c r="AW4" t="n">
+        <v>3.7741935483871</v>
+      </c>
+      <c r="AX4" t="n">
+        <v>5.64516129032258</v>
+      </c>
+      <c r="AY4" t="n">
+        <v>1.45161290322581</v>
+      </c>
+      <c r="AZ4" t="n">
+        <v>9.03225806451613</v>
+      </c>
+      <c r="BA4" t="n">
+        <v>5.20967741935484</v>
+      </c>
+      <c r="BB4" t="n">
+        <v>9.29032258064516</v>
+      </c>
+      <c r="BC4" t="n">
+        <v>7.66129032258065</v>
+      </c>
+      <c r="BD4" t="n">
+        <v>6.45161290322581</v>
+      </c>
+      <c r="BE4" t="n">
+        <v>6.43548387096774</v>
+      </c>
+      <c r="BF4" t="n">
+        <v>2.41666666666667</v>
+      </c>
+      <c r="BG4" t="n">
+        <v>2.66666666666667</v>
+      </c>
+      <c r="BH4" t="n">
+        <v>2.57142857142857</v>
+      </c>
+      <c r="BI4" t="n">
+        <v>2.34782608695652</v>
+      </c>
+      <c r="BJ4" t="n">
+        <v>2.47058823529412</v>
+      </c>
+      <c r="BK4" t="n">
+        <v>2.5625</v>
+      </c>
+      <c r="BL4" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="BM4" t="n">
+        <v>2.04761904761905</v>
+      </c>
+      <c r="BN4" t="n">
+        <v>2.31428571428571</v>
+      </c>
+      <c r="BO4" t="n">
+        <v>2.62857142857143</v>
+      </c>
+      <c r="BP4" t="n">
+        <v>3.08695652173913</v>
+      </c>
+      <c r="BQ4" t="n">
+        <v>2.28571428571429</v>
+      </c>
+      <c r="BR4" t="n">
+        <v>2.72222222222222</v>
+      </c>
+      <c r="BS4" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="BT4" t="n">
         <v>3</v>
       </c>
-      <c r="AW4" t="n">
+      <c r="BU4" t="n">
+        <v>2.45714285714286</v>
+      </c>
+      <c r="BV4" t="n">
+        <v>2.57894736842105</v>
+      </c>
+      <c r="BW4" t="n">
+        <v>2.65625</v>
+      </c>
+      <c r="BX4" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BY4" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="BZ4" t="n">
+        <v>2.89473684210526</v>
+      </c>
+      <c r="CA4" t="n">
+        <v>0.0967741935483871</v>
+      </c>
+      <c r="CB4" t="n">
+        <v>0.290322580645161</v>
+      </c>
+      <c r="CC4" t="n">
+        <v>0.145161290322581</v>
+      </c>
+      <c r="CD4" t="n">
+        <v>1.61290322580645</v>
+      </c>
+      <c r="CE4" t="n">
+        <v>0.887096774193548</v>
+      </c>
+      <c r="CF4" t="n">
+        <v>1.74193548387097</v>
+      </c>
+      <c r="CG4" t="n">
+        <v>1.12903225806452</v>
+      </c>
+      <c r="CH4" t="n">
+        <v>1.03225806451613</v>
+      </c>
+      <c r="CI4" t="n">
+        <v>3.33870967741935</v>
+      </c>
+      <c r="CJ4" t="n">
+        <v>4.03225806451613</v>
+      </c>
+      <c r="CK4" t="n">
+        <v>5.85483870967742</v>
+      </c>
+      <c r="CL4" t="n">
+        <v>3.67741935483871</v>
+      </c>
+      <c r="CM4" t="n">
+        <v>4.19354838709677</v>
+      </c>
+      <c r="CN4" t="n">
+        <v>4.96774193548387</v>
+      </c>
+      <c r="CO4" t="n">
+        <v>0.725806451612903</v>
+      </c>
+      <c r="CP4" t="n">
+        <v>5.93548387096774</v>
+      </c>
+      <c r="CQ4" t="n">
+        <v>6.30645161290323</v>
+      </c>
+      <c r="CR4" t="n">
+        <v>8.12903225806452</v>
+      </c>
+      <c r="CS4" t="n">
+        <v>7.04838709677419</v>
+      </c>
+      <c r="CT4" t="n">
+        <v>2.90322580645161</v>
+      </c>
+      <c r="CU4" t="n">
+        <v>6.43548387096774</v>
+      </c>
+      <c r="CV4" t="n">
+        <v>0.241935483870968</v>
+      </c>
+      <c r="CW4" t="n">
+        <v>0.403225806451613</v>
+      </c>
+      <c r="CX4" t="n">
+        <v>0.32258064516129</v>
+      </c>
+      <c r="CY4" t="n">
+        <v>0.161290322580645</v>
+      </c>
+      <c r="CZ4" t="n">
+        <v>0.435483870967742</v>
+      </c>
+      <c r="DA4" t="n">
+        <v>0.32258064516129</v>
+      </c>
+      <c r="DB4" t="n">
+        <v>4.70967741935484</v>
+      </c>
+      <c r="DC4" t="n">
+        <v>3.51612903225806</v>
+      </c>
+      <c r="DD4" t="n">
+        <v>3.35483870967742</v>
+      </c>
+      <c r="DE4" t="n">
+        <v>4.19354838709677</v>
+      </c>
+      <c r="DF4" t="n">
+        <v>3.59677419354839</v>
+      </c>
+      <c r="DG4" t="n">
+        <v>3.56451612903226</v>
+      </c>
+      <c r="DH4" t="n">
+        <v>3.66129032258065</v>
+      </c>
+      <c r="DI4" t="n">
+        <v>2.50522765764701</v>
+      </c>
+      <c r="DJ4" t="n">
+        <v>2.38452130306969</v>
+      </c>
+      <c r="DK4" t="n">
+        <v>2.40505234013299</v>
+      </c>
+      <c r="DL4" t="n">
+        <v>2.32371562129627</v>
+      </c>
+      <c r="DM4" t="n">
+        <v>2.02877516748485</v>
+      </c>
+      <c r="DN4" t="n">
+        <v>2.22305537086946</v>
+      </c>
+      <c r="DO4" t="n">
+        <v>2.1365111590918</v>
+      </c>
+      <c r="DP4" t="n">
+        <v>2.44291710458943</v>
+      </c>
+      <c r="DQ4" t="n">
+        <v>1.71851223667862</v>
+      </c>
+      <c r="DR4" t="n">
+        <v>2.01961310949002</v>
+      </c>
+      <c r="DS4" t="n">
+        <v>2.04722978634269</v>
+      </c>
+      <c r="DT4" t="n">
+        <v>1.98989960944545</v>
+      </c>
+      <c r="DU4" t="n">
+        <v>6.56451612903226</v>
+      </c>
+      <c r="DV4" t="n">
         <v>3</v>
       </c>
-      <c r="AX4" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="AY4" t="n">
-        <v>2.70588235294118</v>
-      </c>
-      <c r="AZ4" t="n">
-        <v>2.85714285714286</v>
-      </c>
-      <c r="BA4" t="n">
-        <v>2.28571428571429</v>
-      </c>
-      <c r="BB4" t="n">
-        <v>2</v>
-      </c>
-      <c r="BC4" t="n">
-        <v>2.44444444444444</v>
-      </c>
-      <c r="BD4" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="BE4" t="n">
-        <v>2.57142857142857</v>
-      </c>
-      <c r="BF4" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="BG4" t="n">
-        <v>2.33333333333333</v>
-      </c>
-      <c r="BH4" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="BI4" t="n">
-        <v>2.45454545454545</v>
-      </c>
-      <c r="BJ4" t="n">
+      <c r="DW4" t="n">
+        <v>62</v>
+      </c>
+      <c r="DX4" t="n">
+        <v>25.9414225941423</v>
+      </c>
+      <c r="DY4" t="n">
         <v>3</v>
       </c>
-      <c r="BK4" t="n">
-        <v>2.61111111111111</v>
-      </c>
-      <c r="BL4" t="n">
-        <v>2.86666666666667</v>
-      </c>
-      <c r="BM4" t="n">
-        <v>2.69230769230769</v>
-      </c>
-      <c r="BN4" t="n">
-        <v>2.33333333333333</v>
-      </c>
-      <c r="BO4" t="n">
-        <v>2.90909090909091</v>
-      </c>
-      <c r="BP4" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="BQ4" t="n">
-        <v>0.212121212121212</v>
-      </c>
-      <c r="BR4" t="n">
-        <v>0.424242424242424</v>
-      </c>
-      <c r="BS4" t="n">
-        <v>0.181818181818182</v>
-      </c>
-      <c r="BT4" t="n">
-        <v>2.06060606060606</v>
-      </c>
-      <c r="BU4" t="n">
-        <v>0.909090909090909</v>
-      </c>
-      <c r="BV4" t="n">
-        <v>1.81818181818182</v>
-      </c>
-      <c r="BW4" t="n">
-        <v>1.06060606060606</v>
-      </c>
-      <c r="BX4" t="n">
-        <v>2.42424242424242</v>
-      </c>
-      <c r="BY4" t="n">
-        <v>2.18181818181818</v>
-      </c>
-      <c r="BZ4" t="n">
-        <v>2.72727272727273</v>
-      </c>
-      <c r="CA4" t="n">
-        <v>4.66666666666667</v>
-      </c>
-      <c r="CB4" t="n">
-        <v>2.54545454545455</v>
-      </c>
-      <c r="CC4" t="n">
-        <v>3.93939393939394</v>
-      </c>
-      <c r="CD4" t="n">
-        <v>4.24242424242424</v>
-      </c>
-      <c r="CE4" t="n">
-        <v>1.36363636363636</v>
-      </c>
-      <c r="CF4" t="n">
-        <v>5.81818181818182</v>
-      </c>
-      <c r="CG4" t="n">
-        <v>5.66666666666667</v>
-      </c>
-      <c r="CH4" t="n">
-        <v>4.36363636363636</v>
-      </c>
-      <c r="CI4" t="n">
-        <v>5.75757575757576</v>
-      </c>
-      <c r="CJ4" t="n">
-        <v>4.84848484848485</v>
-      </c>
-      <c r="CK4" t="n">
-        <v>5.72727272727273</v>
-      </c>
-      <c r="CL4" t="n">
-        <v>0.151515151515152</v>
-      </c>
-      <c r="CM4" t="n">
-        <v>0.393939393939394</v>
-      </c>
-      <c r="CN4" t="n">
-        <v>0.424242424242424</v>
-      </c>
-      <c r="CO4" t="n">
-        <v>0.303030303030303</v>
-      </c>
-      <c r="CP4" t="n">
-        <v>0.0909090909090909</v>
-      </c>
-      <c r="CQ4" t="n">
-        <v>0.515151515151515</v>
-      </c>
-      <c r="CR4" t="n">
-        <v>2.60741178013905</v>
-      </c>
-      <c r="CS4" t="n">
-        <v>2.3810421901331</v>
-      </c>
-      <c r="CT4" t="n">
-        <v>2.45989905894212</v>
-      </c>
-      <c r="CU4" t="n">
-        <v>2.41045209442339</v>
-      </c>
-      <c r="CV4" t="n">
-        <v>2.10260009793503</v>
-      </c>
-      <c r="CW4" t="n">
-        <v>2.29904433684338</v>
-      </c>
-      <c r="CX4" t="n">
-        <v>2.29942728722633</v>
-      </c>
-      <c r="CY4" t="n">
-        <v>2.54720824098815</v>
-      </c>
-      <c r="CZ4" t="n">
-        <v>1.7457213971568</v>
-      </c>
-      <c r="DA4" t="n">
-        <v>2.07347649692147</v>
-      </c>
-      <c r="DB4" t="n">
-        <v>2.04335860843038</v>
-      </c>
-      <c r="DC4" t="n">
-        <v>1.86888913850636</v>
-      </c>
-      <c r="DD4" t="n">
-        <v>3</v>
-      </c>
-      <c r="DE4" t="n">
-        <v>33</v>
-      </c>
-      <c r="DF4" t="n">
-        <v>13.8075313807531</v>
-      </c>
-      <c r="DG4" t="n">
-        <v>3</v>
-      </c>
-      <c r="DH4" t="n">
-        <v>51.375</v>
-      </c>
-      <c r="DI4" t="n">
-        <v>45.75</v>
-      </c>
-      <c r="DJ4" t="n">
-        <v>0.333333333333333</v>
+      <c r="DZ4" t="n">
+        <v>52.25</v>
+      </c>
+      <c r="EA4" t="n">
+        <v>46.5</v>
+      </c>
+      <c r="EB4" t="n">
+        <v>0.338709677419355</v>
       </c>
     </row>
     <row r="5">
@@ -2066,343 +2336,397 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>2.66129032258065</v>
+        <v>2.51923076923077</v>
       </c>
       <c r="C5" t="n">
-        <v>3.33870967741935</v>
+        <v>7.40384615384615</v>
       </c>
       <c r="D5" t="n">
-        <v>4.25806451612903</v>
+        <v>3.61538461538462</v>
       </c>
       <c r="E5" t="n">
-        <v>2.54838709677419</v>
+        <v>2.80769230769231</v>
       </c>
       <c r="F5" t="n">
-        <v>0.419354838709677</v>
+        <v>0.5</v>
       </c>
       <c r="G5" t="n">
-        <v>0.564516129032258</v>
+        <v>0.5</v>
       </c>
       <c r="H5" t="n">
-        <v>0.225806451612903</v>
+        <v>3.26923076923077</v>
       </c>
       <c r="I5" t="n">
-        <v>4.25806451612903</v>
+        <v>4.51923076923077</v>
       </c>
       <c r="J5" t="n">
-        <v>1.20967741935484</v>
+        <v>1.17307692307692</v>
       </c>
       <c r="K5" t="n">
-        <v>1.30645161290323</v>
+        <v>1.32692307692308</v>
       </c>
       <c r="L5" t="n">
-        <v>2.06451612903226</v>
+        <v>1.98076923076923</v>
       </c>
       <c r="M5" t="n">
-        <v>0.928571428571429</v>
+        <v>0.945945945945946</v>
       </c>
       <c r="N5" t="n">
-        <v>0.0714285714285714</v>
+        <v>0.0540540540540541</v>
       </c>
       <c r="O5" t="n">
-        <v>0.451612903225806</v>
+        <v>2.86538461538462</v>
       </c>
       <c r="P5" t="n">
-        <v>0.403225806451613</v>
+        <v>4.5</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.209677419354839</v>
+        <v>3.13461538461538</v>
       </c>
       <c r="R5" t="n">
-        <v>0.451612903225806</v>
+        <v>2.67307692307692</v>
       </c>
       <c r="S5" t="n">
-        <v>0.225806451612903</v>
+        <v>5.86538461538461</v>
       </c>
       <c r="T5" t="n">
-        <v>0.5</v>
+        <v>4.42307692307692</v>
       </c>
       <c r="U5" t="n">
-        <v>0.225806451612903</v>
+        <v>3.09615384615385</v>
       </c>
       <c r="V5" t="n">
-        <v>0.419354838709677</v>
+        <v>3.19230769230769</v>
       </c>
       <c r="W5" t="n">
-        <v>0.193548387096774</v>
+        <v>3.51923076923077</v>
       </c>
       <c r="X5" t="n">
-        <v>0.241935483870968</v>
+        <v>3.38461538461538</v>
       </c>
       <c r="Y5" t="n">
-        <v>0.387096774193548</v>
+        <v>0.519230769230769</v>
       </c>
       <c r="Z5" t="n">
-        <v>0.193548387096774</v>
+        <v>0.365384615384615</v>
       </c>
       <c r="AA5" t="n">
-        <v>0.193548387096774</v>
+        <v>0.192307692307692</v>
       </c>
       <c r="AB5" t="n">
-        <v>0.290322580645161</v>
+        <v>0.423076923076923</v>
       </c>
       <c r="AC5" t="n">
-        <v>0.338709677419355</v>
+        <v>0.288461538461538</v>
       </c>
       <c r="AD5" t="n">
-        <v>1.48387096774194</v>
+        <v>0.538461538461538</v>
       </c>
       <c r="AE5" t="n">
-        <v>1.37096774193548</v>
+        <v>0.173076923076923</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.54838709677419</v>
+        <v>0.403846153846154</v>
       </c>
       <c r="AG5" t="n">
-        <v>0.903225806451613</v>
+        <v>0.230769230769231</v>
       </c>
       <c r="AH5" t="n">
-        <v>2.70967741935484</v>
+        <v>0.192307692307692</v>
       </c>
       <c r="AI5" t="n">
-        <v>5.08064516129032</v>
+        <v>0.384615384615385</v>
       </c>
       <c r="AJ5" t="n">
-        <v>5.64516129032258</v>
+        <v>0.230769230769231</v>
       </c>
       <c r="AK5" t="n">
-        <v>4.08064516129032</v>
+        <v>0.365384615384615</v>
       </c>
       <c r="AL5" t="n">
-        <v>4.06451612903226</v>
+        <v>0.423076923076923</v>
       </c>
       <c r="AM5" t="n">
-        <v>3.7741935483871</v>
+        <v>0.0576923076923077</v>
       </c>
       <c r="AN5" t="n">
-        <v>5.64516129032258</v>
+        <v>1.92307692307692</v>
       </c>
       <c r="AO5" t="n">
-        <v>1.45161290322581</v>
+        <v>1.92307692307692</v>
       </c>
       <c r="AP5" t="n">
-        <v>9.03225806451613</v>
+        <v>1.5</v>
       </c>
       <c r="AQ5" t="n">
-        <v>5.20967741935484</v>
+        <v>0.942307692307692</v>
       </c>
       <c r="AR5" t="n">
-        <v>9.29032258064516</v>
+        <v>2.61538461538462</v>
       </c>
       <c r="AS5" t="n">
-        <v>7.66129032258065</v>
+        <v>3.46153846153846</v>
       </c>
       <c r="AT5" t="n">
-        <v>6.45161290322581</v>
+        <v>3.84615384615385</v>
       </c>
       <c r="AU5" t="n">
-        <v>6.43548387096774</v>
+        <v>4.01923076923077</v>
       </c>
       <c r="AV5" t="n">
-        <v>2.41666666666667</v>
+        <v>2.07692307692308</v>
       </c>
       <c r="AW5" t="n">
-        <v>2.66666666666667</v>
+        <v>1.75</v>
       </c>
       <c r="AX5" t="n">
-        <v>2.57142857142857</v>
+        <v>3.76923076923077</v>
       </c>
       <c r="AY5" t="n">
-        <v>2.34782608695652</v>
+        <v>0.865384615384615</v>
       </c>
       <c r="AZ5" t="n">
-        <v>2.47058823529412</v>
+        <v>8.61538461538461</v>
       </c>
       <c r="BA5" t="n">
-        <v>2.5625</v>
+        <v>5.88461538461539</v>
       </c>
       <c r="BB5" t="n">
-        <v>2.25</v>
+        <v>7.96153846153846</v>
       </c>
       <c r="BC5" t="n">
-        <v>2.04761904761905</v>
+        <v>2.92307692307692</v>
       </c>
       <c r="BD5" t="n">
-        <v>2.31428571428571</v>
+        <v>6.92307692307692</v>
       </c>
       <c r="BE5" t="n">
-        <v>2.62857142857143</v>
+        <v>4.03846153846154</v>
       </c>
       <c r="BF5" t="n">
-        <v>3.08695652173913</v>
+        <v>2.57894736842105</v>
       </c>
       <c r="BG5" t="n">
-        <v>2.28571428571429</v>
+        <v>2.81818181818182</v>
       </c>
       <c r="BH5" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI5" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="BJ5" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="BK5" t="n">
+        <v>2.84615384615385</v>
+      </c>
+      <c r="BL5" t="n">
+        <v>3.28571428571429</v>
+      </c>
+      <c r="BM5" t="n">
+        <v>2.35294117647059</v>
+      </c>
+      <c r="BN5" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="BO5" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="BP5" t="n">
+        <v>3.36842105263158</v>
+      </c>
+      <c r="BQ5" t="n">
+        <v>2.77777777777778</v>
+      </c>
+      <c r="BR5" t="n">
+        <v>3</v>
+      </c>
+      <c r="BS5" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BT5" t="n">
+        <v>3.66666666666667</v>
+      </c>
+      <c r="BU5" t="n">
+        <v>2.32142857142857</v>
+      </c>
+      <c r="BV5" t="n">
         <v>2.72222222222222</v>
       </c>
-      <c r="BI5" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="BJ5" t="n">
-        <v>3</v>
-      </c>
-      <c r="BK5" t="n">
-        <v>2.45714285714286</v>
-      </c>
-      <c r="BL5" t="n">
-        <v>2.57894736842105</v>
-      </c>
-      <c r="BM5" t="n">
-        <v>2.65625</v>
-      </c>
-      <c r="BN5" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="BO5" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="BP5" t="n">
-        <v>2.89473684210526</v>
-      </c>
-      <c r="BQ5" t="n">
-        <v>0.0967741935483871</v>
-      </c>
-      <c r="BR5" t="n">
-        <v>0.290322580645161</v>
-      </c>
-      <c r="BS5" t="n">
-        <v>0.145161290322581</v>
-      </c>
-      <c r="BT5" t="n">
-        <v>1.61290322580645</v>
-      </c>
-      <c r="BU5" t="n">
-        <v>0.887096774193548</v>
-      </c>
-      <c r="BV5" t="n">
-        <v>1.74193548387097</v>
-      </c>
       <c r="BW5" t="n">
-        <v>1.12903225806452</v>
+        <v>2.43478260869565</v>
       </c>
       <c r="BX5" t="n">
-        <v>1.03225806451613</v>
+        <v>2.5</v>
       </c>
       <c r="BY5" t="n">
-        <v>3.33870967741935</v>
+        <v>2.44444444444444</v>
       </c>
       <c r="BZ5" t="n">
-        <v>4.03225806451613</v>
+        <v>3.5</v>
       </c>
       <c r="CA5" t="n">
-        <v>5.85483870967742</v>
+        <v>0.25</v>
       </c>
       <c r="CB5" t="n">
-        <v>3.67741935483871</v>
+        <v>0.346153846153846</v>
       </c>
       <c r="CC5" t="n">
-        <v>4.19354838709677</v>
+        <v>0.173076923076923</v>
       </c>
       <c r="CD5" t="n">
-        <v>4.96774193548387</v>
+        <v>1.69230769230769</v>
       </c>
       <c r="CE5" t="n">
-        <v>0.725806451612903</v>
+        <v>1.25</v>
       </c>
       <c r="CF5" t="n">
-        <v>5.93548387096774</v>
+        <v>2.19230769230769</v>
       </c>
       <c r="CG5" t="n">
-        <v>6.30645161290323</v>
+        <v>1.61538461538462</v>
       </c>
       <c r="CH5" t="n">
-        <v>8.12903225806452</v>
+        <v>1.53846153846154</v>
       </c>
       <c r="CI5" t="n">
-        <v>7.04838709677419</v>
+        <v>3.28846153846154</v>
       </c>
       <c r="CJ5" t="n">
-        <v>2.90322580645161</v>
+        <v>2.69230769230769</v>
       </c>
       <c r="CK5" t="n">
-        <v>6.43548387096774</v>
+        <v>5.5</v>
       </c>
       <c r="CL5" t="n">
-        <v>0.241935483870968</v>
+        <v>1.61538461538462</v>
       </c>
       <c r="CM5" t="n">
-        <v>0.403225806451613</v>
+        <v>4.5</v>
       </c>
       <c r="CN5" t="n">
-        <v>0.32258064516129</v>
+        <v>2.96153846153846</v>
       </c>
       <c r="CO5" t="n">
-        <v>0.161290322580645</v>
+        <v>2.01923076923077</v>
       </c>
       <c r="CP5" t="n">
-        <v>0.435483870967742</v>
+        <v>7.69230769230769</v>
       </c>
       <c r="CQ5" t="n">
-        <v>0.32258064516129</v>
+        <v>4.57692307692308</v>
       </c>
       <c r="CR5" t="n">
-        <v>2.50522765764701</v>
+        <v>6.92307692307692</v>
       </c>
       <c r="CS5" t="n">
-        <v>2.38452130306969</v>
+        <v>3.28846153846154</v>
       </c>
       <c r="CT5" t="n">
-        <v>2.40505234013299</v>
+        <v>5</v>
       </c>
       <c r="CU5" t="n">
-        <v>2.32371562129627</v>
+        <v>6.46153846153846</v>
       </c>
       <c r="CV5" t="n">
-        <v>2.02877516748485</v>
+        <v>0.230769230769231</v>
       </c>
       <c r="CW5" t="n">
-        <v>2.22305537086946</v>
+        <v>0.307692307692308</v>
       </c>
       <c r="CX5" t="n">
-        <v>2.1365111590918</v>
+        <v>0.384615384615385</v>
       </c>
       <c r="CY5" t="n">
-        <v>2.44291710458943</v>
+        <v>0.211538461538462</v>
       </c>
       <c r="CZ5" t="n">
-        <v>1.71851223667862</v>
+        <v>0.269230769230769</v>
       </c>
       <c r="DA5" t="n">
-        <v>2.01961310949002</v>
+        <v>0.442307692307692</v>
       </c>
       <c r="DB5" t="n">
-        <v>2.04722978634269</v>
+        <v>4.5</v>
       </c>
       <c r="DC5" t="n">
-        <v>1.98989960944545</v>
+        <v>3.96153846153846</v>
       </c>
       <c r="DD5" t="n">
+        <v>3.57692307692308</v>
+      </c>
+      <c r="DE5" t="n">
+        <v>4.57692307692308</v>
+      </c>
+      <c r="DF5" t="n">
+        <v>3.57692307692308</v>
+      </c>
+      <c r="DG5" t="n">
+        <v>3.73076923076923</v>
+      </c>
+      <c r="DH5" t="n">
+        <v>3.71153846153846</v>
+      </c>
+      <c r="DI5" t="n">
+        <v>2.64298484635023</v>
+      </c>
+      <c r="DJ5" t="n">
+        <v>2.41004940572248</v>
+      </c>
+      <c r="DK5" t="n">
+        <v>2.10197969765277</v>
+      </c>
+      <c r="DL5" t="n">
+        <v>2.25993536378152</v>
+      </c>
+      <c r="DM5" t="n">
+        <v>2.0212597231828</v>
+      </c>
+      <c r="DN5" t="n">
+        <v>2.26316893576509</v>
+      </c>
+      <c r="DO5" t="n">
+        <v>2.10007396449704</v>
+      </c>
+      <c r="DP5" t="n">
+        <v>2.42532584936431</v>
+      </c>
+      <c r="DQ5" t="n">
+        <v>1.57852969679893</v>
+      </c>
+      <c r="DR5" t="n">
+        <v>1.86889237898853</v>
+      </c>
+      <c r="DS5" t="n">
+        <v>2.02134174586098</v>
+      </c>
+      <c r="DT5" t="n">
+        <v>1.96030123722431</v>
+      </c>
+      <c r="DU5" t="n">
+        <v>5.76923076923077</v>
+      </c>
+      <c r="DV5" t="n">
         <v>4</v>
       </c>
-      <c r="DE5" t="n">
-        <v>62</v>
-      </c>
-      <c r="DF5" t="n">
-        <v>25.9414225941423</v>
-      </c>
-      <c r="DG5" t="n">
+      <c r="DW5" t="n">
+        <v>52</v>
+      </c>
+      <c r="DX5" t="n">
+        <v>21.7573221757322</v>
+      </c>
+      <c r="DY5" t="n">
         <v>4</v>
       </c>
-      <c r="DH5" t="n">
-        <v>52.25</v>
-      </c>
-      <c r="DI5" t="n">
-        <v>46.5</v>
-      </c>
-      <c r="DJ5" t="n">
-        <v>0.338709677419355</v>
+      <c r="DZ5" t="n">
+        <v>49.5</v>
+      </c>
+      <c r="EA5" t="n">
+        <v>52.2222222222222</v>
+      </c>
+      <c r="EB5" t="n">
+        <v>0.365384615384615</v>
       </c>
     </row>
     <row r="6">
@@ -2410,343 +2734,397 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>3.56521739130435</v>
+        <v>6.1304347826087</v>
       </c>
       <c r="C6" t="n">
-        <v>2.97826086956522</v>
+        <v>5.52173913043478</v>
       </c>
       <c r="D6" t="n">
-        <v>5.06521739130435</v>
+        <v>6.60869565217391</v>
       </c>
       <c r="E6" t="n">
-        <v>6.93478260869565</v>
+        <v>5.91304347826087</v>
       </c>
       <c r="F6" t="n">
         <v>0.217391304347826</v>
       </c>
       <c r="G6" t="n">
+        <v>0.347826086956522</v>
+      </c>
+      <c r="H6" t="n">
+        <v>2.17391304347826</v>
+      </c>
+      <c r="I6" t="n">
+        <v>4.60869565217391</v>
+      </c>
+      <c r="J6" t="n">
+        <v>1.17391304347826</v>
+      </c>
+      <c r="K6" t="n">
+        <v>1.26086956521739</v>
+      </c>
+      <c r="L6" t="n">
+        <v>2.10869565217391</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0.903225806451613</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0.0967741935483871</v>
+      </c>
+      <c r="O6" t="n">
+        <v>4.6304347826087</v>
+      </c>
+      <c r="P6" t="n">
+        <v>6.10869565217391</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>4.34782608695652</v>
+      </c>
+      <c r="R6" t="n">
+        <v>4.43478260869565</v>
+      </c>
+      <c r="S6" t="n">
+        <v>6.02173913043478</v>
+      </c>
+      <c r="T6" t="n">
+        <v>5.34782608695652</v>
+      </c>
+      <c r="U6" t="n">
+        <v>5.08695652173913</v>
+      </c>
+      <c r="V6" t="n">
+        <v>5.56521739130435</v>
+      </c>
+      <c r="W6" t="n">
+        <v>4.3695652173913</v>
+      </c>
+      <c r="X6" t="n">
+        <v>5.26086956521739</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>0.369565217391304</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>0.369565217391304</v>
+      </c>
+      <c r="AA6" t="n">
         <v>0.108695652173913</v>
       </c>
-      <c r="H6" t="n">
+      <c r="AB6" t="n">
+        <v>0.434782608695652</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>0.260869565217391</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>0.282608695652174</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>0.0869565217391304</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>0.260869565217391</v>
+      </c>
+      <c r="AG6" t="n">
         <v>0.130434782608696</v>
       </c>
-      <c r="I6" t="n">
-        <v>4.45652173913043</v>
-      </c>
-      <c r="J6" t="n">
-        <v>1.15217391304348</v>
-      </c>
-      <c r="K6" t="n">
+      <c r="AH6" t="n">
+        <v>0.173913043478261</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>0.260869565217391</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>0.260869565217391</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>0.195652173913043</v>
+      </c>
+      <c r="AL6" t="n">
+        <v>0.347826086956522</v>
+      </c>
+      <c r="AM6" t="n">
+        <v>0.0652173913043478</v>
+      </c>
+      <c r="AN6" t="n">
+        <v>1.04347826086957</v>
+      </c>
+      <c r="AO6" t="n">
         <v>1.30434782608696</v>
       </c>
-      <c r="L6" t="n">
-        <v>2.23913043478261</v>
-      </c>
-      <c r="M6" t="n">
-        <v>1</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0</v>
-      </c>
-      <c r="O6" t="n">
-        <v>0.369565217391304</v>
-      </c>
-      <c r="P6" t="n">
+      <c r="AP6" t="n">
+        <v>0.91304347826087</v>
+      </c>
+      <c r="AQ6" t="n">
+        <v>0.760869565217391</v>
+      </c>
+      <c r="AR6" t="n">
+        <v>1.91304347826087</v>
+      </c>
+      <c r="AS6" t="n">
+        <v>3.32608695652174</v>
+      </c>
+      <c r="AT6" t="n">
+        <v>3.26086956521739</v>
+      </c>
+      <c r="AU6" t="n">
+        <v>2.39130434782609</v>
+      </c>
+      <c r="AV6" t="n">
+        <v>2.34782608695652</v>
+      </c>
+      <c r="AW6" t="n">
+        <v>1.41304347826087</v>
+      </c>
+      <c r="AX6" t="n">
+        <v>1.52173913043478</v>
+      </c>
+      <c r="AY6" t="n">
+        <v>0.326086956521739</v>
+      </c>
+      <c r="AZ6" t="n">
+        <v>7.30434782608696</v>
+      </c>
+      <c r="BA6" t="n">
+        <v>4.43478260869565</v>
+      </c>
+      <c r="BB6" t="n">
+        <v>4.69565217391304</v>
+      </c>
+      <c r="BC6" t="n">
+        <v>6.19565217391304</v>
+      </c>
+      <c r="BD6" t="n">
+        <v>3.04347826086957</v>
+      </c>
+      <c r="BE6" t="n">
+        <v>4.10869565217391</v>
+      </c>
+      <c r="BF6" t="n">
+        <v>2.66666666666667</v>
+      </c>
+      <c r="BG6" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="BH6" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI6" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="BJ6" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BK6" t="n">
+        <v>3</v>
+      </c>
+      <c r="BL6" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BM6" t="n">
+        <v>2.45454545454545</v>
+      </c>
+      <c r="BN6" t="n">
+        <v>2.64705882352941</v>
+      </c>
+      <c r="BO6" t="n">
+        <v>2.93333333333333</v>
+      </c>
+      <c r="BP6" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BQ6" t="n">
+        <v>2.44444444444444</v>
+      </c>
+      <c r="BR6" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BS6" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="BT6" t="n">
+        <v>2</v>
+      </c>
+      <c r="BU6" t="n">
+        <v>2.47619047619048</v>
+      </c>
+      <c r="BV6" t="n">
+        <v>2.66666666666667</v>
+      </c>
+      <c r="BW6" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="BX6" t="n">
+        <v>2.53333333333333</v>
+      </c>
+      <c r="BY6" t="n">
+        <v>2.57142857142857</v>
+      </c>
+      <c r="BZ6" t="n">
+        <v>3</v>
+      </c>
+      <c r="CA6" t="n">
+        <v>0.239130434782609</v>
+      </c>
+      <c r="CB6" t="n">
         <v>0.391304347826087</v>
       </c>
-      <c r="Q6" t="n">
-        <v>0.108695652173913</v>
-      </c>
-      <c r="R6" t="n">
-        <v>0.456521739130435</v>
-      </c>
-      <c r="S6" t="n">
-        <v>0.369565217391304</v>
-      </c>
-      <c r="T6" t="n">
-        <v>0.478260869565217</v>
-      </c>
-      <c r="U6" t="n">
+      <c r="CC6" t="n">
+        <v>0.195652173913043</v>
+      </c>
+      <c r="CD6" t="n">
+        <v>1.39130434782609</v>
+      </c>
+      <c r="CE6" t="n">
+        <v>0.978260869565217</v>
+      </c>
+      <c r="CF6" t="n">
+        <v>1.30434782608696</v>
+      </c>
+      <c r="CG6" t="n">
+        <v>1.06521739130435</v>
+      </c>
+      <c r="CH6" t="n">
+        <v>1.39130434782609</v>
+      </c>
+      <c r="CI6" t="n">
+        <v>1.56521739130435</v>
+      </c>
+      <c r="CJ6" t="n">
+        <v>2.39130434782609</v>
+      </c>
+      <c r="CK6" t="n">
+        <v>3.34782608695652</v>
+      </c>
+      <c r="CL6" t="n">
+        <v>2.34782608695652</v>
+      </c>
+      <c r="CM6" t="n">
+        <v>1.97826086956522</v>
+      </c>
+      <c r="CN6" t="n">
+        <v>2.1304347826087</v>
+      </c>
+      <c r="CO6" t="n">
+        <v>0.978260869565217</v>
+      </c>
+      <c r="CP6" t="n">
+        <v>4.8695652173913</v>
+      </c>
+      <c r="CQ6" t="n">
+        <v>4.06521739130435</v>
+      </c>
+      <c r="CR6" t="n">
+        <v>5.08695652173913</v>
+      </c>
+      <c r="CS6" t="n">
+        <v>4.54347826086957</v>
+      </c>
+      <c r="CT6" t="n">
+        <v>3.47826086956522</v>
+      </c>
+      <c r="CU6" t="n">
+        <v>4.56521739130435</v>
+      </c>
+      <c r="CV6" t="n">
+        <v>0.326086956521739</v>
+      </c>
+      <c r="CW6" t="n">
+        <v>0.326086956521739</v>
+      </c>
+      <c r="CX6" t="n">
+        <v>0.326086956521739</v>
+      </c>
+      <c r="CY6" t="n">
         <v>0.130434782608696</v>
       </c>
-      <c r="V6" t="n">
+      <c r="CZ6" t="n">
         <v>0.391304347826087</v>
       </c>
-      <c r="W6" t="n">
-        <v>0.0869565217391304</v>
-      </c>
-      <c r="X6" t="n">
-        <v>0.152173913043478</v>
-      </c>
-      <c r="Y6" t="n">
+      <c r="DA6" t="n">
+        <v>0.391304347826087</v>
+      </c>
+      <c r="DB6" t="n">
+        <v>4.58695652173913</v>
+      </c>
+      <c r="DC6" t="n">
+        <v>3.1304347826087</v>
+      </c>
+      <c r="DD6" t="n">
+        <v>2.39130434782609</v>
+      </c>
+      <c r="DE6" t="n">
+        <v>4</v>
+      </c>
+      <c r="DF6" t="n">
+        <v>2.93478260869565</v>
+      </c>
+      <c r="DG6" t="n">
+        <v>3.23913043478261</v>
+      </c>
+      <c r="DH6" t="n">
+        <v>3.02173913043478</v>
+      </c>
+      <c r="DI6" t="n">
+        <v>2.46433747412008</v>
+      </c>
+      <c r="DJ6" t="n">
+        <v>2.31390614216701</v>
+      </c>
+      <c r="DK6" t="n">
+        <v>2.36896135265701</v>
+      </c>
+      <c r="DL6" t="n">
+        <v>2.13625776397516</v>
+      </c>
+      <c r="DM6" t="n">
+        <v>2.01256901311249</v>
+      </c>
+      <c r="DN6" t="n">
+        <v>2.22323153899241</v>
+      </c>
+      <c r="DO6" t="n">
+        <v>2.14023464458247</v>
+      </c>
+      <c r="DP6" t="n">
+        <v>2.21174085576259</v>
+      </c>
+      <c r="DQ6" t="n">
+        <v>1.69760179434092</v>
+      </c>
+      <c r="DR6" t="n">
+        <v>1.96466528640442</v>
+      </c>
+      <c r="DS6" t="n">
+        <v>1.91444962042788</v>
+      </c>
+      <c r="DT6" t="n">
+        <v>1.80578847481021</v>
+      </c>
+      <c r="DU6" t="n">
+        <v>4.21739130434783</v>
+      </c>
+      <c r="DV6" t="n">
+        <v>5</v>
+      </c>
+      <c r="DW6" t="n">
+        <v>46</v>
+      </c>
+      <c r="DX6" t="n">
+        <v>19.2468619246862</v>
+      </c>
+      <c r="DY6" t="n">
+        <v>5</v>
+      </c>
+      <c r="DZ6" t="n">
+        <v>56.3</v>
+      </c>
+      <c r="EA6" t="n">
+        <v>41.40625</v>
+      </c>
+      <c r="EB6" t="n">
         <v>0.326086956521739</v>
-      </c>
-      <c r="Z6" t="n">
-        <v>0.152173913043478</v>
-      </c>
-      <c r="AA6" t="n">
-        <v>0.391304347826087</v>
-      </c>
-      <c r="AB6" t="n">
-        <v>0.521739130434783</v>
-      </c>
-      <c r="AC6" t="n">
-        <v>0.391304347826087</v>
-      </c>
-      <c r="AD6" t="n">
-        <v>1.21739130434783</v>
-      </c>
-      <c r="AE6" t="n">
-        <v>0.760869565217391</v>
-      </c>
-      <c r="AF6" t="n">
-        <v>0.782608695652174</v>
-      </c>
-      <c r="AG6" t="n">
-        <v>0.304347826086957</v>
-      </c>
-      <c r="AH6" t="n">
-        <v>1.56521739130435</v>
-      </c>
-      <c r="AI6" t="n">
-        <v>1.95652173913043</v>
-      </c>
-      <c r="AJ6" t="n">
-        <v>2.60869565217391</v>
-      </c>
-      <c r="AK6" t="n">
-        <v>2.15217391304348</v>
-      </c>
-      <c r="AL6" t="n">
-        <v>2.08695652173913</v>
-      </c>
-      <c r="AM6" t="n">
-        <v>1.1304347826087</v>
-      </c>
-      <c r="AN6" t="n">
-        <v>3.34782608695652</v>
-      </c>
-      <c r="AO6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP6" t="n">
-        <v>5.56521739130435</v>
-      </c>
-      <c r="AQ6" t="n">
-        <v>2.95652173913043</v>
-      </c>
-      <c r="AR6" t="n">
-        <v>3.91304347826087</v>
-      </c>
-      <c r="AS6" t="n">
-        <v>2.89130434782609</v>
-      </c>
-      <c r="AT6" t="n">
-        <v>3.91304347826087</v>
-      </c>
-      <c r="AU6" t="n">
-        <v>5.47826086956522</v>
-      </c>
-      <c r="AV6" t="n">
-        <v>2.16666666666667</v>
-      </c>
-      <c r="AW6" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="AX6" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="AY6" t="n">
-        <v>2.35714285714286</v>
-      </c>
-      <c r="AZ6" t="n">
-        <v>2.57142857142857</v>
-      </c>
-      <c r="BA6" t="n">
-        <v>3</v>
-      </c>
-      <c r="BB6" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="BC6" t="n">
-        <v>2.22222222222222</v>
-      </c>
-      <c r="BD6" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="BE6" t="n">
-        <v>2.41666666666667</v>
-      </c>
-      <c r="BF6" t="n">
-        <v>3.22222222222222</v>
-      </c>
-      <c r="BG6" t="n">
-        <v>3</v>
-      </c>
-      <c r="BH6" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="BI6" t="n">
-        <v>2.54545454545455</v>
-      </c>
-      <c r="BJ6" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="BK6" t="n">
-        <v>2.5625</v>
-      </c>
-      <c r="BL6" t="n">
-        <v>2.875</v>
-      </c>
-      <c r="BM6" t="n">
-        <v>3</v>
-      </c>
-      <c r="BN6" t="n">
-        <v>2.57142857142857</v>
-      </c>
-      <c r="BO6" t="n">
-        <v>2.22222222222222</v>
-      </c>
-      <c r="BP6" t="n">
-        <v>3.16666666666667</v>
-      </c>
-      <c r="BQ6" t="n">
-        <v>0.478260869565217</v>
-      </c>
-      <c r="BR6" t="n">
-        <v>0.608695652173913</v>
-      </c>
-      <c r="BS6" t="n">
-        <v>0.326086956521739</v>
-      </c>
-      <c r="BT6" t="n">
-        <v>1.30434782608696</v>
-      </c>
-      <c r="BU6" t="n">
-        <v>0.760869565217391</v>
-      </c>
-      <c r="BV6" t="n">
-        <v>1.43478260869565</v>
-      </c>
-      <c r="BW6" t="n">
-        <v>0.608695652173913</v>
-      </c>
-      <c r="BX6" t="n">
-        <v>1.21739130434783</v>
-      </c>
-      <c r="BY6" t="n">
-        <v>1.56521739130435</v>
-      </c>
-      <c r="BZ6" t="n">
-        <v>1.30434782608696</v>
-      </c>
-      <c r="CA6" t="n">
-        <v>4.06521739130435</v>
-      </c>
-      <c r="CB6" t="n">
-        <v>1.82608695652174</v>
-      </c>
-      <c r="CC6" t="n">
-        <v>1.41304347826087</v>
-      </c>
-      <c r="CD6" t="n">
-        <v>2.43478260869565</v>
-      </c>
-      <c r="CE6" t="n">
-        <v>0</v>
-      </c>
-      <c r="CF6" t="n">
-        <v>3.47826086956522</v>
-      </c>
-      <c r="CG6" t="n">
-        <v>2.21739130434783</v>
-      </c>
-      <c r="CH6" t="n">
-        <v>4.30434782608696</v>
-      </c>
-      <c r="CI6" t="n">
-        <v>1.65217391304348</v>
-      </c>
-      <c r="CJ6" t="n">
-        <v>3.47826086956522</v>
-      </c>
-      <c r="CK6" t="n">
-        <v>3.65217391304348</v>
-      </c>
-      <c r="CL6" t="n">
-        <v>0.173913043478261</v>
-      </c>
-      <c r="CM6" t="n">
-        <v>0.369565217391304</v>
-      </c>
-      <c r="CN6" t="n">
-        <v>0.369565217391304</v>
-      </c>
-      <c r="CO6" t="n">
-        <v>0.130434782608696</v>
-      </c>
-      <c r="CP6" t="n">
-        <v>0.326086956521739</v>
-      </c>
-      <c r="CQ6" t="n">
-        <v>0.434782608695652</v>
-      </c>
-      <c r="CR6" t="n">
-        <v>2.5533988957902</v>
-      </c>
-      <c r="CS6" t="n">
-        <v>2.33653460066504</v>
-      </c>
-      <c r="CT6" t="n">
-        <v>2.46374380450467</v>
-      </c>
-      <c r="CU6" t="n">
-        <v>2.34849896480331</v>
-      </c>
-      <c r="CV6" t="n">
-        <v>1.82509489302968</v>
-      </c>
-      <c r="CW6" t="n">
-        <v>2.07649162431771</v>
-      </c>
-      <c r="CX6" t="n">
-        <v>2.11272350837568</v>
-      </c>
-      <c r="CY6" t="n">
-        <v>2.34752964426877</v>
-      </c>
-      <c r="CZ6" t="n">
-        <v>1.53411835748792</v>
-      </c>
-      <c r="DA6" t="n">
-        <v>1.82388010540184</v>
-      </c>
-      <c r="DB6" t="n">
-        <v>1.83567507371855</v>
-      </c>
-      <c r="DC6" t="n">
-        <v>1.4162196499153</v>
-      </c>
-      <c r="DD6" t="n">
-        <v>5</v>
-      </c>
-      <c r="DE6" t="n">
-        <v>46</v>
-      </c>
-      <c r="DF6" t="n">
-        <v>19.2468619246862</v>
-      </c>
-      <c r="DG6" t="n">
-        <v>5</v>
-      </c>
-      <c r="DH6" t="n">
-        <v>60.2903225806452</v>
-      </c>
-      <c r="DI6" t="n">
-        <v>41.25</v>
-      </c>
-      <c r="DJ6" t="n">
-        <v>0.456521739130435</v>
       </c>
     </row>
   </sheetData>

--- a/c1.xlsx
+++ b/c1.xlsx
@@ -8,19 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\p3892.vesttooreins\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BF5B29A-A89A-4297-94D1-816BA88926C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A7244A9-708F-4F78-827E-CE940B651F5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6" yWindow="0" windowWidth="23028" windowHeight="13800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="138">
   <si>
     <t>cluster1...1</t>
   </si>
@@ -416,13 +417,31 @@
   </si>
   <si>
     <t>sizeover1b</t>
+  </si>
+  <si>
+    <t>% like to try new things and share with others</t>
+  </si>
+  <si>
+    <t>% stick only to the largest reinsurers</t>
+  </si>
+  <si>
+    <t>% think they’ll use or recommend capital markets</t>
+  </si>
+  <si>
+    <t>% see advantages to digital reinsurance marketplace</t>
+  </si>
+  <si>
+    <t>% used or actively considered fintech</t>
+  </si>
+  <si>
+    <t>% used or actively considered marketplace</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -430,16 +449,39 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF02749C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCBD6DE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE7ECEF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -447,12 +489,70 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFFFFFFF"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFFFFFFF"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFFFFFFF"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FFFFFFFF"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFFFFFFF"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFFFFFFF"/>
+      </right>
+      <top style="thick">
+        <color rgb="FFFFFFFF"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFFFFFFF"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFFFFFFF"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFFFFFFF"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFFFFFFF"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFFFFFFF"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -752,2402 +852,2634 @@
   <dimension ref="A1:EB6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight"/>
+      <pane xSplit="1" topLeftCell="BF1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="BF2" sqref="BF2:BZ6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.9453125" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
     <row r="1" spans="1:132" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="M1" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
+      <c r="N1" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="O1" t="s">
+      <c r="O1" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="P1" t="s">
+      <c r="P1" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="Q1" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="R1" t="s">
+      <c r="R1" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="S1" t="s">
+      <c r="S1" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="T1" t="s">
+      <c r="T1" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="U1" t="s">
+      <c r="U1" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="V1" t="s">
+      <c r="V1" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="W1" t="s">
+      <c r="W1" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="X1" t="s">
+      <c r="X1" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Y1" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="Z1" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AA1" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AB1" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AC1" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AD1" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AE1" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AF1" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AG1" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="AH1" t="s">
+      <c r="AH1" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="AI1" t="s">
+      <c r="AI1" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="AJ1" t="s">
+      <c r="AJ1" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="AK1" t="s">
+      <c r="AK1" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="AL1" t="s">
+      <c r="AL1" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="AM1" t="s">
+      <c r="AM1" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="AN1" t="s">
+      <c r="AN1" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="AO1" t="s">
+      <c r="AO1" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="AP1" t="s">
+      <c r="AP1" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="AQ1" t="s">
+      <c r="AQ1" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="AR1" t="s">
+      <c r="AR1" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="AS1" t="s">
+      <c r="AS1" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="AT1" t="s">
+      <c r="AT1" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="AU1" t="s">
+      <c r="AU1" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="AV1" t="s">
+      <c r="AV1" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="AW1" t="s">
+      <c r="AW1" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="AX1" t="s">
+      <c r="AX1" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="AY1" t="s">
+      <c r="AY1" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="AZ1" t="s">
+      <c r="AZ1" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="BA1" t="s">
+      <c r="BA1" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="BB1" t="s">
+      <c r="BB1" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="BC1" t="s">
+      <c r="BC1" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="BD1" t="s">
+      <c r="BD1" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="BE1" t="s">
+      <c r="BE1" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="BF1" t="s">
+      <c r="BF1" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="BG1" t="s">
+      <c r="BG1" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="BH1" t="s">
+      <c r="BH1" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="BI1" t="s">
+      <c r="BI1" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="BJ1" t="s">
+      <c r="BJ1" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="BK1" t="s">
+      <c r="BK1" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="BL1" t="s">
+      <c r="BL1" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="BM1" t="s">
+      <c r="BM1" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="BN1" t="s">
+      <c r="BN1" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="BO1" t="s">
+      <c r="BO1" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="BP1" t="s">
+      <c r="BP1" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="BQ1" t="s">
+      <c r="BQ1" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="BR1" t="s">
+      <c r="BR1" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="BS1" t="s">
+      <c r="BS1" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="BT1" t="s">
+      <c r="BT1" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="BU1" t="s">
+      <c r="BU1" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="BV1" t="s">
+      <c r="BV1" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="BW1" t="s">
+      <c r="BW1" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="BX1" t="s">
+      <c r="BX1" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="BY1" t="s">
+      <c r="BY1" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="BZ1" t="s">
+      <c r="BZ1" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="CA1" t="s">
+      <c r="CA1" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="CB1" t="s">
+      <c r="CB1" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="CC1" t="s">
+      <c r="CC1" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="CD1" t="s">
+      <c r="CD1" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="CE1" t="s">
+      <c r="CE1" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="CF1" t="s">
+      <c r="CF1" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="CG1" t="s">
+      <c r="CG1" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="CH1" t="s">
+      <c r="CH1" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="CI1" t="s">
+      <c r="CI1" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="CJ1" t="s">
+      <c r="CJ1" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="CK1" t="s">
+      <c r="CK1" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="CL1" t="s">
+      <c r="CL1" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="CM1" t="s">
+      <c r="CM1" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="CN1" t="s">
+      <c r="CN1" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="CO1" t="s">
+      <c r="CO1" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="CP1" t="s">
+      <c r="CP1" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="CQ1" t="s">
+      <c r="CQ1" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="CR1" t="s">
+      <c r="CR1" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="CS1" t="s">
+      <c r="CS1" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="CT1" t="s">
+      <c r="CT1" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="CU1" t="s">
+      <c r="CU1" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="CV1" t="s">
+      <c r="CV1" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="CW1" t="s">
+      <c r="CW1" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="CX1" t="s">
+      <c r="CX1" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="CY1" t="s">
+      <c r="CY1" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="CZ1" t="s">
+      <c r="CZ1" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="DA1" t="s">
+      <c r="DA1" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="DB1" t="s">
+      <c r="DB1" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="DC1" t="s">
+      <c r="DC1" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="DD1" t="s">
+      <c r="DD1" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="DE1" t="s">
+      <c r="DE1" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="DF1" t="s">
+      <c r="DF1" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="DG1" t="s">
+      <c r="DG1" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="DH1" t="s">
+      <c r="DH1" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="DI1" t="s">
+      <c r="DI1" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="DJ1" t="s">
+      <c r="DJ1" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="DK1" t="s">
+      <c r="DK1" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="DL1" t="s">
+      <c r="DL1" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="DM1" t="s">
+      <c r="DM1" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="DN1" t="s">
+      <c r="DN1" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="DO1" t="s">
+      <c r="DO1" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="DP1" t="s">
+      <c r="DP1" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="DQ1" t="s">
+      <c r="DQ1" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="DR1" t="s">
+      <c r="DR1" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="DS1" t="s">
+      <c r="DS1" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="DT1" t="s">
+      <c r="DT1" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="DU1" t="s">
+      <c r="DU1" s="5" t="s">
         <v>124</v>
       </c>
-      <c r="DV1" t="s">
+      <c r="DV1" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="DW1" t="s">
+      <c r="DW1" s="5" t="s">
         <v>126</v>
       </c>
-      <c r="DX1" t="s">
+      <c r="DX1" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="DY1" t="s">
+      <c r="DY1" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="DZ1" t="s">
+      <c r="DZ1" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="EA1" t="s">
+      <c r="EA1" s="5" t="s">
         <v>130</v>
       </c>
-      <c r="EB1" t="s">
+      <c r="EB1" s="5" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="2" spans="1:132" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2">
+      <c r="A2" s="5">
         <v>1</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="5">
         <v>3.5652173913043499</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="5">
         <v>2.97826086956522</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="5">
         <v>5.0652173913043503</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="5">
         <v>6.9347826086956497</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="5">
         <v>0.217391304347826</v>
       </c>
-      <c r="G2">
+      <c r="G2" s="5">
         <v>0.108695652173913</v>
       </c>
-      <c r="H2">
+      <c r="H2" s="5">
         <v>1.3043478260869601</v>
       </c>
-      <c r="I2">
+      <c r="I2" s="5">
         <v>4.4565217391304301</v>
       </c>
-      <c r="J2">
+      <c r="J2" s="5">
         <v>1.15217391304348</v>
       </c>
-      <c r="K2">
+      <c r="K2" s="5">
         <v>1.3043478260869601</v>
       </c>
-      <c r="L2">
+      <c r="L2" s="5">
         <v>2.2391304347826102</v>
       </c>
-      <c r="M2">
+      <c r="M2" s="5">
         <v>1</v>
       </c>
-      <c r="N2">
+      <c r="N2" s="5">
         <v>0</v>
       </c>
-      <c r="O2">
+      <c r="O2" s="5">
         <v>3.52173913043478</v>
       </c>
-      <c r="P2">
+      <c r="P2" s="5">
         <v>4.1956521739130404</v>
       </c>
-      <c r="Q2">
+      <c r="Q2" s="5">
         <v>3.2173913043478302</v>
       </c>
-      <c r="R2">
+      <c r="R2" s="5">
         <v>3.3043478260869601</v>
       </c>
-      <c r="S2">
+      <c r="S2" s="5">
         <v>5.9565217391304301</v>
       </c>
-      <c r="T2">
+      <c r="T2" s="5">
         <v>5.2608695652173898</v>
       </c>
-      <c r="U2">
+      <c r="U2" s="5">
         <v>3.47826086956522</v>
       </c>
-      <c r="V2">
+      <c r="V2" s="5">
         <v>4.5</v>
       </c>
-      <c r="W2">
+      <c r="W2" s="5">
         <v>3.4565217391304301</v>
       </c>
-      <c r="X2">
+      <c r="X2" s="5">
         <v>4.3478260869565197</v>
       </c>
-      <c r="Y2">
+      <c r="Y2" s="5">
         <v>0.36956521739130399</v>
       </c>
-      <c r="Z2">
+      <c r="Z2" s="5">
         <v>0.39130434782608697</v>
       </c>
-      <c r="AA2">
+      <c r="AA2" s="5">
         <v>0.108695652173913</v>
       </c>
-      <c r="AB2">
+      <c r="AB2" s="5">
         <v>0.45652173913043498</v>
       </c>
-      <c r="AC2">
+      <c r="AC2" s="5">
         <v>0.36956521739130399</v>
       </c>
-      <c r="AD2">
+      <c r="AD2" s="5">
         <v>0.47826086956521702</v>
       </c>
-      <c r="AE2">
+      <c r="AE2" s="5">
         <v>0.13043478260869601</v>
       </c>
-      <c r="AF2">
+      <c r="AF2" s="5">
         <v>0.39130434782608697</v>
       </c>
-      <c r="AG2">
+      <c r="AG2" s="5">
         <v>8.6956521739130405E-2</v>
       </c>
-      <c r="AH2">
+      <c r="AH2" s="5">
         <v>0.15217391304347799</v>
       </c>
-      <c r="AI2">
+      <c r="AI2" s="5">
         <v>0.32608695652173902</v>
       </c>
-      <c r="AJ2">
+      <c r="AJ2" s="5">
         <v>0.15217391304347799</v>
       </c>
-      <c r="AK2">
+      <c r="AK2" s="5">
         <v>0.39130434782608697</v>
       </c>
-      <c r="AL2">
+      <c r="AL2" s="5">
         <v>0.52173913043478304</v>
       </c>
-      <c r="AM2">
+      <c r="AM2" s="5">
         <v>0.39130434782608697</v>
       </c>
-      <c r="AN2">
+      <c r="AN2" s="5">
         <v>1.2173913043478299</v>
       </c>
-      <c r="AO2">
+      <c r="AO2" s="5">
         <v>0.76086956521739102</v>
       </c>
-      <c r="AP2">
+      <c r="AP2" s="5">
         <v>0.78260869565217395</v>
       </c>
-      <c r="AQ2">
+      <c r="AQ2" s="5">
         <v>0.30434782608695699</v>
       </c>
-      <c r="AR2">
+      <c r="AR2" s="5">
         <v>1.5652173913043499</v>
       </c>
-      <c r="AS2">
+      <c r="AS2" s="5">
         <v>1.9565217391304299</v>
       </c>
-      <c r="AT2">
+      <c r="AT2" s="5">
         <v>2.60869565217391</v>
       </c>
-      <c r="AU2">
+      <c r="AU2" s="5">
         <v>2.1521739130434798</v>
       </c>
-      <c r="AV2">
+      <c r="AV2" s="5">
         <v>2.0869565217391299</v>
       </c>
-      <c r="AW2">
+      <c r="AW2" s="5">
         <v>1.1304347826087</v>
       </c>
-      <c r="AX2">
+      <c r="AX2" s="5">
         <v>3.3478260869565202</v>
       </c>
-      <c r="AY2">
+      <c r="AY2" s="5">
         <v>0</v>
       </c>
-      <c r="AZ2">
+      <c r="AZ2" s="5">
         <v>5.5652173913043503</v>
       </c>
-      <c r="BA2">
+      <c r="BA2" s="5">
         <v>2.9565217391304301</v>
       </c>
-      <c r="BB2">
+      <c r="BB2" s="5">
         <v>3.9130434782608701</v>
       </c>
-      <c r="BC2">
+      <c r="BC2" s="5">
         <v>2.89130434782609</v>
       </c>
-      <c r="BD2">
+      <c r="BD2" s="5">
         <v>3.9130434782608701</v>
       </c>
-      <c r="BE2">
+      <c r="BE2" s="5">
         <v>5.4782608695652204</v>
       </c>
-      <c r="BF2">
+      <c r="BF2" s="5">
         <v>2.1666666666666701</v>
       </c>
-      <c r="BG2">
+      <c r="BG2" s="5">
         <v>2.5</v>
       </c>
-      <c r="BH2">
+      <c r="BH2" s="5">
         <v>2.5</v>
       </c>
-      <c r="BI2">
+      <c r="BI2" s="5">
         <v>2.3571428571428599</v>
       </c>
-      <c r="BJ2">
+      <c r="BJ2" s="5">
         <v>2.5714285714285698</v>
       </c>
-      <c r="BK2">
+      <c r="BK2" s="5">
         <v>3</v>
       </c>
-      <c r="BL2">
+      <c r="BL2" s="5">
         <v>2.5</v>
       </c>
-      <c r="BM2">
+      <c r="BM2" s="5">
         <v>2.2222222222222201</v>
       </c>
-      <c r="BN2">
+      <c r="BN2" s="5">
         <v>2.2000000000000002</v>
       </c>
-      <c r="BO2">
+      <c r="BO2" s="5">
         <v>2.4166666666666701</v>
       </c>
-      <c r="BP2">
+      <c r="BP2" s="5">
         <v>3.2222222222222201</v>
       </c>
-      <c r="BQ2">
+      <c r="BQ2" s="5">
         <v>3</v>
       </c>
-      <c r="BR2">
+      <c r="BR2" s="5">
         <v>2.75</v>
       </c>
-      <c r="BS2">
+      <c r="BS2" s="5">
         <v>2.5454545454545499</v>
       </c>
-      <c r="BT2" t="e">
+      <c r="BT2" s="5" t="e">
         <v>#NUM!</v>
       </c>
-      <c r="BU2">
+      <c r="BU2" s="5">
         <v>2.5625</v>
       </c>
-      <c r="BV2">
+      <c r="BV2" s="5">
         <v>2.875</v>
       </c>
-      <c r="BW2">
+      <c r="BW2" s="5">
         <v>3</v>
       </c>
-      <c r="BX2">
+      <c r="BX2" s="5">
         <v>2.5714285714285698</v>
       </c>
-      <c r="BY2">
+      <c r="BY2" s="5">
         <v>2.2222222222222201</v>
       </c>
-      <c r="BZ2">
+      <c r="BZ2" s="5">
         <v>3.1666666666666701</v>
       </c>
-      <c r="CA2">
+      <c r="CA2" s="5">
         <v>0.47826086956521702</v>
       </c>
-      <c r="CB2">
+      <c r="CB2" s="5">
         <v>0.60869565217391297</v>
       </c>
-      <c r="CC2">
+      <c r="CC2" s="5">
         <v>0.32608695652173902</v>
       </c>
-      <c r="CD2">
+      <c r="CD2" s="5">
         <v>1.3043478260869601</v>
       </c>
-      <c r="CE2">
+      <c r="CE2" s="5">
         <v>0.76086956521739102</v>
       </c>
-      <c r="CF2">
+      <c r="CF2" s="5">
         <v>1.4347826086956501</v>
       </c>
-      <c r="CG2">
+      <c r="CG2" s="5">
         <v>0.60869565217391297</v>
       </c>
-      <c r="CH2">
+      <c r="CH2" s="5">
         <v>1.2173913043478299</v>
       </c>
-      <c r="CI2">
+      <c r="CI2" s="5">
         <v>1.5652173913043499</v>
       </c>
-      <c r="CJ2">
+      <c r="CJ2" s="5">
         <v>1.3043478260869601</v>
       </c>
-      <c r="CK2">
+      <c r="CK2" s="5">
         <v>4.0652173913043503</v>
       </c>
-      <c r="CL2">
+      <c r="CL2" s="5">
         <v>1.8260869565217399</v>
       </c>
-      <c r="CM2">
+      <c r="CM2" s="5">
         <v>1.4130434782608701</v>
       </c>
-      <c r="CN2">
+      <c r="CN2" s="5">
         <v>2.4347826086956501</v>
       </c>
-      <c r="CO2">
+      <c r="CO2" s="5">
         <v>0</v>
       </c>
-      <c r="CP2">
+      <c r="CP2" s="5">
         <v>3.47826086956522</v>
       </c>
-      <c r="CQ2">
+      <c r="CQ2" s="5">
         <v>2.2173913043478302</v>
       </c>
-      <c r="CR2">
+      <c r="CR2" s="5">
         <v>4.3043478260869596</v>
       </c>
-      <c r="CS2">
+      <c r="CS2" s="5">
         <v>1.65217391304348</v>
       </c>
-      <c r="CT2">
+      <c r="CT2" s="5">
         <v>3.47826086956522</v>
       </c>
-      <c r="CU2">
+      <c r="CU2" s="5">
         <v>3.6521739130434798</v>
       </c>
-      <c r="CV2">
+      <c r="CV2" s="5">
         <v>0.173913043478261</v>
       </c>
-      <c r="CW2">
+      <c r="CW2" s="5">
         <v>0.36956521739130399</v>
       </c>
-      <c r="CX2">
+      <c r="CX2" s="5">
         <v>0.36956521739130399</v>
       </c>
-      <c r="CY2">
+      <c r="CY2" s="5">
         <v>0.13043478260869601</v>
       </c>
-      <c r="CZ2">
+      <c r="CZ2" s="5">
         <v>0.32608695652173902</v>
       </c>
-      <c r="DA2">
+      <c r="DA2" s="5">
         <v>0.434782608695652</v>
       </c>
-      <c r="DB2">
+      <c r="DB2" s="5">
         <v>4.7173913043478297</v>
       </c>
-      <c r="DC2">
+      <c r="DC2" s="5">
         <v>3.2391304347826102</v>
       </c>
-      <c r="DD2">
+      <c r="DD2" s="5">
         <v>2.4565217391304301</v>
       </c>
-      <c r="DE2">
+      <c r="DE2" s="5">
         <v>4.2173913043478297</v>
       </c>
-      <c r="DF2">
+      <c r="DF2" s="5">
         <v>2.2608695652173898</v>
       </c>
-      <c r="DG2">
+      <c r="DG2" s="5">
         <v>2.9347826086956501</v>
       </c>
-      <c r="DH2">
+      <c r="DH2" s="5">
         <v>2.9347826086956501</v>
       </c>
-      <c r="DI2">
+      <c r="DI2" s="5">
         <v>2.5533988957901999</v>
       </c>
-      <c r="DJ2">
+      <c r="DJ2" s="5">
         <v>2.3365346006650398</v>
       </c>
-      <c r="DK2">
+      <c r="DK2" s="5">
         <v>2.46374380450467</v>
       </c>
-      <c r="DL2">
+      <c r="DL2" s="5">
         <v>2.3484989648033099</v>
       </c>
-      <c r="DM2">
+      <c r="DM2" s="5">
         <v>1.82509489302968</v>
       </c>
-      <c r="DN2">
+      <c r="DN2" s="5">
         <v>2.0764916243177098</v>
       </c>
-      <c r="DO2">
+      <c r="DO2" s="5">
         <v>2.1127235083756801</v>
       </c>
-      <c r="DP2">
+      <c r="DP2" s="5">
         <v>2.3475296442687701</v>
       </c>
-      <c r="DQ2">
+      <c r="DQ2" s="5">
         <v>1.53411835748792</v>
       </c>
-      <c r="DR2">
+      <c r="DR2" s="5">
         <v>1.8238801054018401</v>
       </c>
-      <c r="DS2">
+      <c r="DS2" s="5">
         <v>1.8356750737185501</v>
       </c>
-      <c r="DT2">
+      <c r="DT2" s="5">
         <v>1.4162196499152999</v>
       </c>
-      <c r="DU2">
+      <c r="DU2" s="5">
         <v>3.8695652173913002</v>
       </c>
-      <c r="DV2">
+      <c r="DV2" s="5">
         <v>1</v>
       </c>
-      <c r="DW2">
+      <c r="DW2" s="5">
         <v>46</v>
       </c>
-      <c r="DX2">
+      <c r="DX2" s="5">
         <v>19.2468619246862</v>
       </c>
-      <c r="DY2">
+      <c r="DY2" s="5">
         <v>1</v>
       </c>
-      <c r="DZ2">
+      <c r="DZ2" s="5">
         <v>60.290322580645203</v>
       </c>
-      <c r="EA2">
+      <c r="EA2" s="5">
         <v>41.25</v>
       </c>
-      <c r="EB2">
+      <c r="EB2" s="5">
         <v>0.45652173913043498</v>
       </c>
     </row>
     <row r="3" spans="1:132" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3">
+      <c r="A3" s="5">
         <v>2</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="5">
         <v>6.60606060606061</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="5">
         <v>5.1515151515151496</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="5">
         <v>3.39393939393939</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="5">
         <v>3.15151515151515</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="5">
         <v>0.39393939393939398</v>
       </c>
-      <c r="G3">
+      <c r="G3" s="5">
         <v>0.54545454545454497</v>
       </c>
-      <c r="H3">
+      <c r="H3" s="5">
         <v>2.4242424242424199</v>
       </c>
-      <c r="I3">
+      <c r="I3" s="5">
         <v>4.1515151515151496</v>
       </c>
-      <c r="J3">
+      <c r="J3" s="5">
         <v>1.2121212121212099</v>
       </c>
-      <c r="K3">
+      <c r="K3" s="5">
         <v>1.24242424242424</v>
       </c>
-      <c r="L3">
+      <c r="L3" s="5">
         <v>2.0303030303030298</v>
       </c>
-      <c r="M3">
+      <c r="M3" s="5">
         <v>0.92</v>
       </c>
-      <c r="N3">
+      <c r="N3" s="5">
         <v>0.08</v>
       </c>
-      <c r="O3">
+      <c r="O3" s="5">
         <v>3.6969696969696999</v>
       </c>
-      <c r="P3">
+      <c r="P3" s="5">
         <v>5.4545454545454497</v>
       </c>
-      <c r="Q3">
+      <c r="Q3" s="5">
         <v>3.60606060606061</v>
       </c>
-      <c r="R3">
+      <c r="R3" s="5">
         <v>4.3333333333333304</v>
       </c>
-      <c r="S3">
+      <c r="S3" s="5">
         <v>6.48484848484848</v>
       </c>
-      <c r="T3">
+      <c r="T3" s="5">
         <v>4.2424242424242404</v>
       </c>
-      <c r="U3">
+      <c r="U3" s="5">
         <v>3.48484848484848</v>
       </c>
-      <c r="V3">
+      <c r="V3" s="5">
         <v>3.7272727272727302</v>
       </c>
-      <c r="W3">
+      <c r="W3" s="5">
         <v>3.75757575757576</v>
       </c>
-      <c r="X3">
+      <c r="X3" s="5">
         <v>4.51515151515152</v>
       </c>
-      <c r="Y3">
+      <c r="Y3" s="5">
         <v>0.33333333333333298</v>
       </c>
-      <c r="Z3">
+      <c r="Z3" s="5">
         <v>0.30303030303030298</v>
       </c>
-      <c r="AA3">
+      <c r="AA3" s="5">
         <v>0.15151515151515199</v>
       </c>
-      <c r="AB3">
+      <c r="AB3" s="5">
         <v>0.39393939393939398</v>
       </c>
-      <c r="AC3">
+      <c r="AC3" s="5">
         <v>0.18181818181818199</v>
       </c>
-      <c r="AD3">
+      <c r="AD3" s="5">
         <v>0.54545454545454497</v>
       </c>
-      <c r="AE3">
+      <c r="AE3" s="5">
         <v>0.18181818181818199</v>
       </c>
-      <c r="AF3">
+      <c r="AF3" s="5">
         <v>0.33333333333333298</v>
       </c>
-      <c r="AG3">
+      <c r="AG3" s="5">
         <v>0.18181818181818199</v>
       </c>
-      <c r="AH3">
+      <c r="AH3" s="5">
         <v>0.27272727272727298</v>
       </c>
-      <c r="AI3">
+      <c r="AI3" s="5">
         <v>0.51515151515151503</v>
       </c>
-      <c r="AJ3">
+      <c r="AJ3" s="5">
         <v>0.24242424242424199</v>
       </c>
-      <c r="AK3">
+      <c r="AK3" s="5">
         <v>0.27272727272727298</v>
       </c>
-      <c r="AL3">
+      <c r="AL3" s="5">
         <v>0.24242424242424199</v>
       </c>
-      <c r="AM3">
+      <c r="AM3" s="5">
         <v>0.18181818181818199</v>
       </c>
-      <c r="AN3">
+      <c r="AN3" s="5">
         <v>2.0606060606060601</v>
       </c>
-      <c r="AO3">
+      <c r="AO3" s="5">
         <v>1.0606060606060601</v>
       </c>
-      <c r="AP3">
+      <c r="AP3" s="5">
         <v>1.27272727272727</v>
       </c>
-      <c r="AQ3">
+      <c r="AQ3" s="5">
         <v>0.42424242424242398</v>
       </c>
-      <c r="AR3">
+      <c r="AR3" s="5">
         <v>2.1818181818181799</v>
       </c>
-      <c r="AS3">
+      <c r="AS3" s="5">
         <v>4.0909090909090899</v>
       </c>
-      <c r="AT3">
+      <c r="AT3" s="5">
         <v>4.2424242424242404</v>
       </c>
-      <c r="AU3">
+      <c r="AU3" s="5">
         <v>4</v>
       </c>
-      <c r="AV3">
+      <c r="AV3" s="5">
         <v>3.2727272727272698</v>
       </c>
-      <c r="AW3">
+      <c r="AW3" s="5">
         <v>3.15151515151515</v>
       </c>
-      <c r="AX3">
+      <c r="AX3" s="5">
         <v>4.6666666666666696</v>
       </c>
-      <c r="AY3">
+      <c r="AY3" s="5">
         <v>0.90909090909090895</v>
       </c>
-      <c r="AZ3">
+      <c r="AZ3" s="5">
         <v>8.7272727272727302</v>
       </c>
-      <c r="BA3">
+      <c r="BA3" s="5">
         <v>7.7272727272727302</v>
       </c>
-      <c r="BB3">
+      <c r="BB3" s="5">
         <v>7.0909090909090899</v>
       </c>
-      <c r="BC3">
+      <c r="BC3" s="5">
         <v>6.9090909090909101</v>
       </c>
-      <c r="BD3">
+      <c r="BD3" s="5">
         <v>6.6666666666666696</v>
       </c>
-      <c r="BE3">
+      <c r="BE3" s="5">
         <v>9.5454545454545396</v>
       </c>
-      <c r="BF3">
+      <c r="BF3" s="5">
         <v>3</v>
       </c>
-      <c r="BG3">
+      <c r="BG3" s="5">
         <v>3</v>
       </c>
-      <c r="BH3">
+      <c r="BH3" s="5">
         <v>2.5</v>
       </c>
-      <c r="BI3">
+      <c r="BI3" s="5">
         <v>2.7058823529411802</v>
       </c>
-      <c r="BJ3">
+      <c r="BJ3" s="5">
         <v>2.8571428571428599</v>
       </c>
-      <c r="BK3">
+      <c r="BK3" s="5">
         <v>2.28571428571429</v>
       </c>
-      <c r="BL3">
+      <c r="BL3" s="5">
         <v>2</v>
       </c>
-      <c r="BM3">
+      <c r="BM3" s="5">
         <v>2.4444444444444402</v>
       </c>
-      <c r="BN3">
+      <c r="BN3" s="5">
         <v>2.2000000000000002</v>
       </c>
-      <c r="BO3">
+      <c r="BO3" s="5">
         <v>2.5714285714285698</v>
       </c>
-      <c r="BP3">
+      <c r="BP3" s="5">
         <v>3.25</v>
       </c>
-      <c r="BQ3">
+      <c r="BQ3" s="5">
         <v>2.3333333333333299</v>
       </c>
-      <c r="BR3">
+      <c r="BR3" s="5">
         <v>2.5</v>
       </c>
-      <c r="BS3">
+      <c r="BS3" s="5">
         <v>2.4545454545454501</v>
       </c>
-      <c r="BT3">
+      <c r="BT3" s="5">
         <v>3</v>
       </c>
-      <c r="BU3">
+      <c r="BU3" s="5">
         <v>2.6111111111111098</v>
       </c>
-      <c r="BV3">
+      <c r="BV3" s="5">
         <v>2.8666666666666698</v>
       </c>
-      <c r="BW3">
+      <c r="BW3" s="5">
         <v>2.6923076923076898</v>
       </c>
-      <c r="BX3">
+      <c r="BX3" s="5">
         <v>2.3333333333333299</v>
       </c>
-      <c r="BY3">
+      <c r="BY3" s="5">
         <v>2.9090909090909101</v>
       </c>
-      <c r="BZ3">
+      <c r="BZ3" s="5">
         <v>3.2</v>
       </c>
-      <c r="CA3">
+      <c r="CA3" s="5">
         <v>0.21212121212121199</v>
       </c>
-      <c r="CB3">
+      <c r="CB3" s="5">
         <v>0.42424242424242398</v>
       </c>
-      <c r="CC3">
+      <c r="CC3" s="5">
         <v>0.18181818181818199</v>
       </c>
-      <c r="CD3">
+      <c r="CD3" s="5">
         <v>2.0606060606060601</v>
       </c>
-      <c r="CE3">
+      <c r="CE3" s="5">
         <v>0.90909090909090895</v>
       </c>
-      <c r="CF3">
+      <c r="CF3" s="5">
         <v>1.8181818181818199</v>
       </c>
-      <c r="CG3">
+      <c r="CG3" s="5">
         <v>1.0606060606060601</v>
       </c>
-      <c r="CH3">
+      <c r="CH3" s="5">
         <v>2.4242424242424199</v>
       </c>
-      <c r="CI3">
+      <c r="CI3" s="5">
         <v>2.1818181818181799</v>
       </c>
-      <c r="CJ3">
+      <c r="CJ3" s="5">
         <v>2.7272727272727302</v>
       </c>
-      <c r="CK3">
+      <c r="CK3" s="5">
         <v>4.6666666666666696</v>
       </c>
-      <c r="CL3">
+      <c r="CL3" s="5">
         <v>2.5454545454545499</v>
       </c>
-      <c r="CM3">
+      <c r="CM3" s="5">
         <v>3.9393939393939399</v>
       </c>
-      <c r="CN3">
+      <c r="CN3" s="5">
         <v>4.2424242424242404</v>
       </c>
-      <c r="CO3">
+      <c r="CO3" s="5">
         <v>1.36363636363636</v>
       </c>
-      <c r="CP3">
+      <c r="CP3" s="5">
         <v>5.8181818181818201</v>
       </c>
-      <c r="CQ3">
+      <c r="CQ3" s="5">
         <v>5.6666666666666696</v>
       </c>
-      <c r="CR3">
+      <c r="CR3" s="5">
         <v>4.3636363636363598</v>
       </c>
-      <c r="CS3">
+      <c r="CS3" s="5">
         <v>5.7575757575757596</v>
       </c>
-      <c r="CT3">
+      <c r="CT3" s="5">
         <v>4.8484848484848504</v>
       </c>
-      <c r="CU3">
+      <c r="CU3" s="5">
         <v>5.7272727272727302</v>
       </c>
-      <c r="CV3">
+      <c r="CV3" s="5">
         <v>0.15151515151515199</v>
       </c>
-      <c r="CW3">
+      <c r="CW3" s="5">
         <v>0.39393939393939398</v>
       </c>
-      <c r="CX3">
+      <c r="CX3" s="5">
         <v>0.42424242424242398</v>
       </c>
-      <c r="CY3">
+      <c r="CY3" s="5">
         <v>0.30303030303030298</v>
       </c>
-      <c r="CZ3">
+      <c r="CZ3" s="5">
         <v>9.0909090909090898E-2</v>
       </c>
-      <c r="DA3">
+      <c r="DA3" s="5">
         <v>0.51515151515151503</v>
       </c>
-      <c r="DB3">
+      <c r="DB3" s="5">
         <v>4.6363636363636402</v>
       </c>
-      <c r="DC3">
+      <c r="DC3" s="5">
         <v>3.8181818181818201</v>
       </c>
-      <c r="DD3">
+      <c r="DD3" s="5">
         <v>3.3030303030303001</v>
       </c>
-      <c r="DE3">
+      <c r="DE3" s="5">
         <v>4.48484848484848</v>
       </c>
-      <c r="DF3">
+      <c r="DF3" s="5">
         <v>3.6363636363636398</v>
       </c>
-      <c r="DG3">
+      <c r="DG3" s="5">
         <v>3.6363636363636398</v>
       </c>
-      <c r="DH3">
+      <c r="DH3" s="5">
         <v>3.5757575757575801</v>
       </c>
-      <c r="DI3">
+      <c r="DI3" s="5">
         <v>2.6074117801390502</v>
       </c>
-      <c r="DJ3">
+      <c r="DJ3" s="5">
         <v>2.3810421901330998</v>
       </c>
-      <c r="DK3">
+      <c r="DK3" s="5">
         <v>2.4598990589421201</v>
       </c>
-      <c r="DL3">
+      <c r="DL3" s="5">
         <v>2.4104520944233898</v>
       </c>
-      <c r="DM3">
+      <c r="DM3" s="5">
         <v>2.1026000979350301</v>
       </c>
-      <c r="DN3">
+      <c r="DN3" s="5">
         <v>2.2990443368433802</v>
       </c>
-      <c r="DO3">
+      <c r="DO3" s="5">
         <v>2.2994272872263299</v>
       </c>
-      <c r="DP3">
+      <c r="DP3" s="5">
         <v>2.5472082409881498</v>
       </c>
-      <c r="DQ3">
+      <c r="DQ3" s="5">
         <v>1.7457213971568</v>
       </c>
-      <c r="DR3">
+      <c r="DR3" s="5">
         <v>2.0734764969214701</v>
       </c>
-      <c r="DS3">
+      <c r="DS3" s="5">
         <v>2.0433586084303799</v>
       </c>
-      <c r="DT3">
+      <c r="DT3" s="5">
         <v>1.86888913850636</v>
       </c>
-      <c r="DU3">
+      <c r="DU3" s="5">
         <v>5.9696969696969697</v>
       </c>
-      <c r="DV3">
+      <c r="DV3" s="5">
         <v>2</v>
       </c>
-      <c r="DW3">
+      <c r="DW3" s="5">
         <v>33</v>
       </c>
-      <c r="DX3">
+      <c r="DX3" s="5">
         <v>13.807531380753099</v>
       </c>
-      <c r="DY3">
+      <c r="DY3" s="5">
         <v>2</v>
       </c>
-      <c r="DZ3">
+      <c r="DZ3" s="5">
         <v>51.375</v>
       </c>
-      <c r="EA3">
+      <c r="EA3" s="5">
         <v>45.75</v>
       </c>
-      <c r="EB3">
+      <c r="EB3" s="5">
         <v>0.33333333333333298</v>
       </c>
     </row>
     <row r="4" spans="1:132" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4">
+      <c r="A4" s="5">
         <v>3</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="5">
         <v>2.6612903225806499</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="5">
         <v>3.3387096774193501</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="5">
         <v>4.2580645161290303</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="5">
         <v>2.54838709677419</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="5">
         <v>0.41935483870967699</v>
       </c>
-      <c r="G4">
+      <c r="G4" s="5">
         <v>0.56451612903225801</v>
       </c>
-      <c r="H4">
+      <c r="H4" s="5">
         <v>2.2580645161290298</v>
       </c>
-      <c r="I4">
+      <c r="I4" s="5">
         <v>4.2580645161290303</v>
       </c>
-      <c r="J4">
+      <c r="J4" s="5">
         <v>1.2096774193548401</v>
       </c>
-      <c r="K4">
+      <c r="K4" s="5">
         <v>1.30645161290323</v>
       </c>
-      <c r="L4">
+      <c r="L4" s="5">
         <v>2.0645161290322598</v>
       </c>
-      <c r="M4">
+      <c r="M4" s="5">
         <v>0.92857142857142905</v>
       </c>
-      <c r="N4">
+      <c r="N4" s="5">
         <v>7.1428571428571397E-2</v>
       </c>
-      <c r="O4">
+      <c r="O4" s="5">
         <v>2.5322580645161299</v>
       </c>
-      <c r="P4">
+      <c r="P4" s="5">
         <v>4.2419354838709697</v>
       </c>
-      <c r="Q4">
+      <c r="Q4" s="5">
         <v>3.4193548387096802</v>
       </c>
-      <c r="R4">
+      <c r="R4" s="5">
         <v>2.95161290322581</v>
       </c>
-      <c r="S4">
+      <c r="S4" s="5">
         <v>5.4193548387096797</v>
       </c>
-      <c r="T4">
+      <c r="T4" s="5">
         <v>4.3548387096774199</v>
       </c>
-      <c r="U4">
+      <c r="U4" s="5">
         <v>3.30645161290323</v>
       </c>
-      <c r="V4">
+      <c r="V4" s="5">
         <v>3.2741935483871001</v>
       </c>
-      <c r="W4">
+      <c r="W4" s="5">
         <v>3.12903225806452</v>
       </c>
-      <c r="X4">
+      <c r="X4" s="5">
         <v>3.3870967741935498</v>
       </c>
-      <c r="Y4">
+      <c r="Y4" s="5">
         <v>0.45161290322580599</v>
       </c>
-      <c r="Z4">
+      <c r="Z4" s="5">
         <v>0.40322580645161299</v>
       </c>
-      <c r="AA4">
+      <c r="AA4" s="5">
         <v>0.209677419354839</v>
       </c>
-      <c r="AB4">
+      <c r="AB4" s="5">
         <v>0.45161290322580599</v>
       </c>
-      <c r="AC4">
+      <c r="AC4" s="5">
         <v>0.225806451612903</v>
       </c>
-      <c r="AD4">
+      <c r="AD4" s="5">
         <v>0.5</v>
       </c>
-      <c r="AE4">
+      <c r="AE4" s="5">
         <v>0.225806451612903</v>
       </c>
-      <c r="AF4">
+      <c r="AF4" s="5">
         <v>0.41935483870967699</v>
       </c>
-      <c r="AG4">
+      <c r="AG4" s="5">
         <v>0.19354838709677399</v>
       </c>
-      <c r="AH4">
+      <c r="AH4" s="5">
         <v>0.241935483870968</v>
       </c>
-      <c r="AI4">
+      <c r="AI4" s="5">
         <v>0.38709677419354799</v>
       </c>
-      <c r="AJ4">
+      <c r="AJ4" s="5">
         <v>0.19354838709677399</v>
       </c>
-      <c r="AK4">
+      <c r="AK4" s="5">
         <v>0.19354838709677399</v>
       </c>
-      <c r="AL4">
+      <c r="AL4" s="5">
         <v>0.29032258064516098</v>
       </c>
-      <c r="AM4">
+      <c r="AM4" s="5">
         <v>0.33870967741935498</v>
       </c>
-      <c r="AN4">
+      <c r="AN4" s="5">
         <v>1.4838709677419399</v>
       </c>
-      <c r="AO4">
+      <c r="AO4" s="5">
         <v>1.37096774193548</v>
       </c>
-      <c r="AP4">
+      <c r="AP4" s="5">
         <v>1.54838709677419</v>
       </c>
-      <c r="AQ4">
+      <c r="AQ4" s="5">
         <v>0.90322580645161299</v>
       </c>
-      <c r="AR4">
+      <c r="AR4" s="5">
         <v>2.7096774193548399</v>
       </c>
-      <c r="AS4">
+      <c r="AS4" s="5">
         <v>5.0806451612903203</v>
       </c>
-      <c r="AT4">
+      <c r="AT4" s="5">
         <v>5.6451612903225801</v>
       </c>
-      <c r="AU4">
+      <c r="AU4" s="5">
         <v>4.0806451612903203</v>
       </c>
-      <c r="AV4">
+      <c r="AV4" s="5">
         <v>4.0645161290322598</v>
       </c>
-      <c r="AW4">
+      <c r="AW4" s="5">
         <v>3.7741935483871001</v>
       </c>
-      <c r="AX4">
+      <c r="AX4" s="5">
         <v>5.6451612903225801</v>
       </c>
-      <c r="AY4">
+      <c r="AY4" s="5">
         <v>1.45161290322581</v>
       </c>
-      <c r="AZ4">
+      <c r="AZ4" s="5">
         <v>9.0322580645161299</v>
       </c>
-      <c r="BA4">
+      <c r="BA4" s="5">
         <v>5.2096774193548399</v>
       </c>
-      <c r="BB4">
+      <c r="BB4" s="5">
         <v>9.2903225806451601</v>
       </c>
-      <c r="BC4">
+      <c r="BC4" s="5">
         <v>7.6612903225806503</v>
       </c>
-      <c r="BD4">
+      <c r="BD4" s="5">
         <v>6.4516129032258096</v>
       </c>
-      <c r="BE4">
+      <c r="BE4" s="5">
         <v>6.4354838709677402</v>
       </c>
-      <c r="BF4">
+      <c r="BF4" s="5">
         <v>2.4166666666666701</v>
       </c>
-      <c r="BG4">
+      <c r="BG4" s="5">
         <v>2.6666666666666701</v>
       </c>
-      <c r="BH4">
+      <c r="BH4" s="5">
         <v>2.5714285714285698</v>
       </c>
-      <c r="BI4">
+      <c r="BI4" s="5">
         <v>2.3478260869565202</v>
       </c>
-      <c r="BJ4">
+      <c r="BJ4" s="5">
         <v>2.47058823529412</v>
       </c>
-      <c r="BK4">
+      <c r="BK4" s="5">
         <v>2.5625</v>
       </c>
-      <c r="BL4">
+      <c r="BL4" s="5">
         <v>2.25</v>
       </c>
-      <c r="BM4">
+      <c r="BM4" s="5">
         <v>2.0476190476190501</v>
       </c>
-      <c r="BN4">
+      <c r="BN4" s="5">
         <v>2.3142857142857101</v>
       </c>
-      <c r="BO4">
+      <c r="BO4" s="5">
         <v>2.6285714285714299</v>
       </c>
-      <c r="BP4">
+      <c r="BP4" s="5">
         <v>3.0869565217391299</v>
       </c>
-      <c r="BQ4">
+      <c r="BQ4" s="5">
         <v>2.28571428571429</v>
       </c>
-      <c r="BR4">
+      <c r="BR4" s="5">
         <v>2.7222222222222201</v>
       </c>
-      <c r="BS4">
+      <c r="BS4" s="5">
         <v>2.6</v>
       </c>
-      <c r="BT4">
+      <c r="BT4" s="5">
         <v>3</v>
       </c>
-      <c r="BU4">
+      <c r="BU4" s="5">
         <v>2.45714285714286</v>
       </c>
-      <c r="BV4">
+      <c r="BV4" s="5">
         <v>2.57894736842105</v>
       </c>
-      <c r="BW4">
+      <c r="BW4" s="5">
         <v>2.65625</v>
       </c>
-      <c r="BX4">
+      <c r="BX4" s="5">
         <v>2.4</v>
       </c>
-      <c r="BY4">
+      <c r="BY4" s="5">
         <v>2.2999999999999998</v>
       </c>
-      <c r="BZ4">
+      <c r="BZ4" s="5">
         <v>2.8947368421052602</v>
       </c>
-      <c r="CA4">
+      <c r="CA4" s="5">
         <v>9.6774193548387094E-2</v>
       </c>
-      <c r="CB4">
+      <c r="CB4" s="5">
         <v>0.29032258064516098</v>
       </c>
-      <c r="CC4">
+      <c r="CC4" s="5">
         <v>0.14516129032258099</v>
       </c>
-      <c r="CD4">
+      <c r="CD4" s="5">
         <v>1.61290322580645</v>
       </c>
-      <c r="CE4">
+      <c r="CE4" s="5">
         <v>0.88709677419354804</v>
       </c>
-      <c r="CF4">
+      <c r="CF4" s="5">
         <v>1.74193548387097</v>
       </c>
-      <c r="CG4">
+      <c r="CG4" s="5">
         <v>1.12903225806452</v>
       </c>
-      <c r="CH4">
+      <c r="CH4" s="5">
         <v>1.0322580645161299</v>
       </c>
-      <c r="CI4">
+      <c r="CI4" s="5">
         <v>3.3387096774193501</v>
       </c>
-      <c r="CJ4">
+      <c r="CJ4" s="5">
         <v>4.0322580645161299</v>
       </c>
-      <c r="CK4">
+      <c r="CK4" s="5">
         <v>5.8548387096774199</v>
       </c>
-      <c r="CL4">
+      <c r="CL4" s="5">
         <v>3.67741935483871</v>
       </c>
-      <c r="CM4">
+      <c r="CM4" s="5">
         <v>4.1935483870967696</v>
       </c>
-      <c r="CN4">
+      <c r="CN4" s="5">
         <v>4.9677419354838701</v>
       </c>
-      <c r="CO4">
+      <c r="CO4" s="5">
         <v>0.72580645161290303</v>
       </c>
-      <c r="CP4">
+      <c r="CP4" s="5">
         <v>5.9354838709677402</v>
       </c>
-      <c r="CQ4">
+      <c r="CQ4" s="5">
         <v>6.3064516129032304</v>
       </c>
-      <c r="CR4">
+      <c r="CR4" s="5">
         <v>8.1290322580645196</v>
       </c>
-      <c r="CS4">
+      <c r="CS4" s="5">
         <v>7.0483870967741904</v>
       </c>
-      <c r="CT4">
+      <c r="CT4" s="5">
         <v>2.9032258064516099</v>
       </c>
-      <c r="CU4">
+      <c r="CU4" s="5">
         <v>6.4354838709677402</v>
       </c>
-      <c r="CV4">
+      <c r="CV4" s="5">
         <v>0.241935483870968</v>
       </c>
-      <c r="CW4">
+      <c r="CW4" s="5">
         <v>0.40322580645161299</v>
       </c>
-      <c r="CX4">
+      <c r="CX4" s="5">
         <v>0.32258064516128998</v>
       </c>
-      <c r="CY4">
+      <c r="CY4" s="5">
         <v>0.16129032258064499</v>
       </c>
-      <c r="CZ4">
+      <c r="CZ4" s="5">
         <v>0.43548387096774199</v>
       </c>
-      <c r="DA4">
+      <c r="DA4" s="5">
         <v>0.32258064516128998</v>
       </c>
-      <c r="DB4">
+      <c r="DB4" s="5">
         <v>4.7096774193548399</v>
       </c>
-      <c r="DC4">
+      <c r="DC4" s="5">
         <v>3.5161290322580601</v>
       </c>
-      <c r="DD4">
+      <c r="DD4" s="5">
         <v>3.3548387096774199</v>
       </c>
-      <c r="DE4">
+      <c r="DE4" s="5">
         <v>4.1935483870967696</v>
       </c>
-      <c r="DF4">
+      <c r="DF4" s="5">
         <v>3.5967741935483901</v>
       </c>
-      <c r="DG4">
+      <c r="DG4" s="5">
         <v>3.5645161290322598</v>
       </c>
-      <c r="DH4">
+      <c r="DH4" s="5">
         <v>3.6612903225806499</v>
       </c>
-      <c r="DI4">
+      <c r="DI4" s="5">
         <v>2.5052276576470098</v>
       </c>
-      <c r="DJ4">
+      <c r="DJ4" s="5">
         <v>2.3845213030696901</v>
       </c>
-      <c r="DK4">
+      <c r="DK4" s="5">
         <v>2.4050523401329902</v>
       </c>
-      <c r="DL4">
+      <c r="DL4" s="5">
         <v>2.32371562129627</v>
       </c>
-      <c r="DM4">
+      <c r="DM4" s="5">
         <v>2.02877516748485</v>
       </c>
-      <c r="DN4">
+      <c r="DN4" s="5">
         <v>2.22305537086946</v>
       </c>
-      <c r="DO4">
+      <c r="DO4" s="5">
         <v>2.1365111590917998</v>
       </c>
-      <c r="DP4">
+      <c r="DP4" s="5">
         <v>2.44291710458943</v>
       </c>
-      <c r="DQ4">
+      <c r="DQ4" s="5">
         <v>1.7185122366786201</v>
       </c>
-      <c r="DR4">
+      <c r="DR4" s="5">
         <v>2.0196131094900198</v>
       </c>
-      <c r="DS4">
+      <c r="DS4" s="5">
         <v>2.0472297863426898</v>
       </c>
-      <c r="DT4">
+      <c r="DT4" s="5">
         <v>1.98989960944545</v>
       </c>
-      <c r="DU4">
+      <c r="DU4" s="5">
         <v>6.5645161290322598</v>
       </c>
-      <c r="DV4">
+      <c r="DV4" s="5">
         <v>3</v>
       </c>
-      <c r="DW4">
+      <c r="DW4" s="5">
         <v>62</v>
       </c>
-      <c r="DX4">
+      <c r="DX4" s="5">
         <v>25.941422594142299</v>
       </c>
-      <c r="DY4">
+      <c r="DY4" s="5">
         <v>3</v>
       </c>
-      <c r="DZ4">
+      <c r="DZ4" s="5">
         <v>52.25</v>
       </c>
-      <c r="EA4">
+      <c r="EA4" s="5">
         <v>46.5</v>
       </c>
-      <c r="EB4">
+      <c r="EB4" s="5">
         <v>0.33870967741935498</v>
       </c>
     </row>
     <row r="5" spans="1:132" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5">
+      <c r="A5" s="5">
         <v>4</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="5">
         <v>2.5192307692307701</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="5">
         <v>7.4038461538461497</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="5">
         <v>3.6153846153846199</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="5">
         <v>2.8076923076923102</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="5">
         <v>0.5</v>
       </c>
-      <c r="G5">
+      <c r="G5" s="5">
         <v>0.5</v>
       </c>
-      <c r="H5">
+      <c r="H5" s="5">
         <v>3.2692307692307701</v>
       </c>
-      <c r="I5">
+      <c r="I5" s="5">
         <v>4.5192307692307701</v>
       </c>
-      <c r="J5">
+      <c r="J5" s="5">
         <v>1.17307692307692</v>
       </c>
-      <c r="K5">
+      <c r="K5" s="5">
         <v>1.32692307692308</v>
       </c>
-      <c r="L5">
+      <c r="L5" s="5">
         <v>1.9807692307692299</v>
       </c>
-      <c r="M5">
+      <c r="M5" s="5">
         <v>0.94594594594594605</v>
       </c>
-      <c r="N5">
+      <c r="N5" s="5">
         <v>5.4054054054054099E-2</v>
       </c>
-      <c r="O5">
+      <c r="O5" s="5">
         <v>2.8653846153846199</v>
       </c>
-      <c r="P5">
+      <c r="P5" s="5">
         <v>4.5</v>
       </c>
-      <c r="Q5">
+      <c r="Q5" s="5">
         <v>3.1346153846153801</v>
       </c>
-      <c r="R5">
+      <c r="R5" s="5">
         <v>2.6730769230769198</v>
       </c>
-      <c r="S5">
+      <c r="S5" s="5">
         <v>5.8653846153846096</v>
       </c>
-      <c r="T5">
+      <c r="T5" s="5">
         <v>4.4230769230769198</v>
       </c>
-      <c r="U5">
+      <c r="U5" s="5">
         <v>3.0961538461538498</v>
       </c>
-      <c r="V5">
+      <c r="V5" s="5">
         <v>3.1923076923076898</v>
       </c>
-      <c r="W5">
+      <c r="W5" s="5">
         <v>3.5192307692307701</v>
       </c>
-      <c r="X5">
+      <c r="X5" s="5">
         <v>3.3846153846153801</v>
       </c>
-      <c r="Y5">
+      <c r="Y5" s="5">
         <v>0.51923076923076905</v>
       </c>
-      <c r="Z5">
+      <c r="Z5" s="5">
         <v>0.36538461538461497</v>
       </c>
-      <c r="AA5">
+      <c r="AA5" s="5">
         <v>0.19230769230769201</v>
       </c>
-      <c r="AB5">
+      <c r="AB5" s="5">
         <v>0.42307692307692302</v>
       </c>
-      <c r="AC5">
+      <c r="AC5" s="5">
         <v>0.28846153846153799</v>
       </c>
-      <c r="AD5">
+      <c r="AD5" s="5">
         <v>0.53846153846153799</v>
       </c>
-      <c r="AE5">
+      <c r="AE5" s="5">
         <v>0.17307692307692299</v>
       </c>
-      <c r="AF5">
+      <c r="AF5" s="5">
         <v>0.40384615384615402</v>
       </c>
-      <c r="AG5">
+      <c r="AG5" s="5">
         <v>0.230769230769231</v>
       </c>
-      <c r="AH5">
+      <c r="AH5" s="5">
         <v>0.19230769230769201</v>
       </c>
-      <c r="AI5">
+      <c r="AI5" s="5">
         <v>0.38461538461538503</v>
       </c>
-      <c r="AJ5">
+      <c r="AJ5" s="5">
         <v>0.230769230769231</v>
       </c>
-      <c r="AK5">
+      <c r="AK5" s="5">
         <v>0.36538461538461497</v>
       </c>
-      <c r="AL5">
+      <c r="AL5" s="5">
         <v>0.42307692307692302</v>
       </c>
-      <c r="AM5">
+      <c r="AM5" s="5">
         <v>5.7692307692307702E-2</v>
       </c>
-      <c r="AN5">
+      <c r="AN5" s="5">
         <v>1.92307692307692</v>
       </c>
-      <c r="AO5">
+      <c r="AO5" s="5">
         <v>1.92307692307692</v>
       </c>
-      <c r="AP5">
+      <c r="AP5" s="5">
         <v>1.5</v>
       </c>
-      <c r="AQ5">
+      <c r="AQ5" s="5">
         <v>0.94230769230769196</v>
       </c>
-      <c r="AR5">
+      <c r="AR5" s="5">
         <v>2.6153846153846199</v>
       </c>
-      <c r="AS5">
+      <c r="AS5" s="5">
         <v>3.4615384615384599</v>
       </c>
-      <c r="AT5">
+      <c r="AT5" s="5">
         <v>3.8461538461538498</v>
       </c>
-      <c r="AU5">
+      <c r="AU5" s="5">
         <v>4.0192307692307701</v>
       </c>
-      <c r="AV5">
+      <c r="AV5" s="5">
         <v>2.0769230769230802</v>
       </c>
-      <c r="AW5">
+      <c r="AW5" s="5">
         <v>1.75</v>
       </c>
-      <c r="AX5">
+      <c r="AX5" s="5">
         <v>3.7692307692307701</v>
       </c>
-      <c r="AY5">
+      <c r="AY5" s="5">
         <v>0.86538461538461497</v>
       </c>
-      <c r="AZ5">
+      <c r="AZ5" s="5">
         <v>8.6153846153846096</v>
       </c>
-      <c r="BA5">
+      <c r="BA5" s="5">
         <v>5.8846153846153904</v>
       </c>
-      <c r="BB5">
+      <c r="BB5" s="5">
         <v>7.9615384615384599</v>
       </c>
-      <c r="BC5">
+      <c r="BC5" s="5">
         <v>2.9230769230769198</v>
       </c>
-      <c r="BD5">
+      <c r="BD5" s="5">
         <v>6.9230769230769198</v>
       </c>
-      <c r="BE5">
+      <c r="BE5" s="5">
         <v>4.0384615384615401</v>
       </c>
-      <c r="BF5">
+      <c r="BF5" s="5">
         <v>2.57894736842105</v>
       </c>
-      <c r="BG5">
+      <c r="BG5" s="5">
         <v>2.8181818181818201</v>
       </c>
-      <c r="BH5">
+      <c r="BH5" s="5">
         <v>4</v>
       </c>
-      <c r="BI5">
+      <c r="BI5" s="5">
         <v>2.68</v>
       </c>
-      <c r="BJ5">
+      <c r="BJ5" s="5">
         <v>2.35</v>
       </c>
-      <c r="BK5">
+      <c r="BK5" s="5">
         <v>2.8461538461538498</v>
       </c>
-      <c r="BL5">
+      <c r="BL5" s="5">
         <v>3.28571428571429</v>
       </c>
-      <c r="BM5">
+      <c r="BM5" s="5">
         <v>2.3529411764705901</v>
       </c>
-      <c r="BN5">
+      <c r="BN5" s="5">
         <v>2.5499999999999998</v>
       </c>
-      <c r="BO5">
+      <c r="BO5" s="5">
         <v>2.65</v>
       </c>
-      <c r="BP5">
+      <c r="BP5" s="5">
         <v>3.3684210526315801</v>
       </c>
-      <c r="BQ5">
+      <c r="BQ5" s="5">
         <v>2.7777777777777799</v>
       </c>
-      <c r="BR5">
+      <c r="BR5" s="5">
         <v>3</v>
       </c>
-      <c r="BS5">
+      <c r="BS5" s="5">
         <v>2.5</v>
       </c>
-      <c r="BT5">
+      <c r="BT5" s="5">
         <v>3.6666666666666701</v>
       </c>
-      <c r="BU5">
+      <c r="BU5" s="5">
         <v>2.3214285714285698</v>
       </c>
-      <c r="BV5">
+      <c r="BV5" s="5">
         <v>2.7222222222222201</v>
       </c>
-      <c r="BW5">
+      <c r="BW5" s="5">
         <v>2.4347826086956501</v>
       </c>
-      <c r="BX5">
+      <c r="BX5" s="5">
         <v>2.5</v>
       </c>
-      <c r="BY5">
+      <c r="BY5" s="5">
         <v>2.4444444444444402</v>
       </c>
-      <c r="BZ5">
+      <c r="BZ5" s="5">
         <v>3.5</v>
       </c>
-      <c r="CA5">
+      <c r="CA5" s="5">
         <v>0.25</v>
       </c>
-      <c r="CB5">
+      <c r="CB5" s="5">
         <v>0.34615384615384598</v>
       </c>
-      <c r="CC5">
+      <c r="CC5" s="5">
         <v>0.17307692307692299</v>
       </c>
-      <c r="CD5">
+      <c r="CD5" s="5">
         <v>1.6923076923076901</v>
       </c>
-      <c r="CE5">
+      <c r="CE5" s="5">
         <v>1.25</v>
       </c>
-      <c r="CF5">
+      <c r="CF5" s="5">
         <v>2.1923076923076898</v>
       </c>
-      <c r="CG5">
+      <c r="CG5" s="5">
         <v>1.6153846153846201</v>
       </c>
-      <c r="CH5">
+      <c r="CH5" s="5">
         <v>1.5384615384615401</v>
       </c>
-      <c r="CI5">
+      <c r="CI5" s="5">
         <v>3.2884615384615401</v>
       </c>
-      <c r="CJ5">
+      <c r="CJ5" s="5">
         <v>2.6923076923076898</v>
       </c>
-      <c r="CK5">
+      <c r="CK5" s="5">
         <v>5.5</v>
       </c>
-      <c r="CL5">
+      <c r="CL5" s="5">
         <v>1.6153846153846201</v>
       </c>
-      <c r="CM5">
+      <c r="CM5" s="5">
         <v>4.5</v>
       </c>
-      <c r="CN5">
+      <c r="CN5" s="5">
         <v>2.9615384615384599</v>
       </c>
-      <c r="CO5">
+      <c r="CO5" s="5">
         <v>2.0192307692307701</v>
       </c>
-      <c r="CP5">
+      <c r="CP5" s="5">
         <v>7.6923076923076898</v>
       </c>
-      <c r="CQ5">
+      <c r="CQ5" s="5">
         <v>4.5769230769230802</v>
       </c>
-      <c r="CR5">
+      <c r="CR5" s="5">
         <v>6.9230769230769198</v>
       </c>
-      <c r="CS5">
+      <c r="CS5" s="5">
         <v>3.2884615384615401</v>
       </c>
-      <c r="CT5">
+      <c r="CT5" s="5">
         <v>5</v>
       </c>
-      <c r="CU5">
+      <c r="CU5" s="5">
         <v>6.4615384615384599</v>
       </c>
-      <c r="CV5">
+      <c r="CV5" s="5">
         <v>0.230769230769231</v>
       </c>
-      <c r="CW5">
+      <c r="CW5" s="5">
         <v>0.30769230769230799</v>
       </c>
-      <c r="CX5">
+      <c r="CX5" s="5">
         <v>0.38461538461538503</v>
       </c>
-      <c r="CY5">
+      <c r="CY5" s="5">
         <v>0.21153846153846201</v>
       </c>
-      <c r="CZ5">
+      <c r="CZ5" s="5">
         <v>0.269230769230769</v>
       </c>
-      <c r="DA5">
+      <c r="DA5" s="5">
         <v>0.44230769230769201</v>
       </c>
-      <c r="DB5">
+      <c r="DB5" s="5">
         <v>4.5</v>
       </c>
-      <c r="DC5">
+      <c r="DC5" s="5">
         <v>3.9615384615384599</v>
       </c>
-      <c r="DD5">
+      <c r="DD5" s="5">
         <v>3.5769230769230802</v>
       </c>
-      <c r="DE5">
+      <c r="DE5" s="5">
         <v>4.5769230769230802</v>
       </c>
-      <c r="DF5">
+      <c r="DF5" s="5">
         <v>3.5769230769230802</v>
       </c>
-      <c r="DG5">
+      <c r="DG5" s="5">
         <v>3.7307692307692299</v>
       </c>
-      <c r="DH5">
+      <c r="DH5" s="5">
         <v>3.7115384615384599</v>
       </c>
-      <c r="DI5">
+      <c r="DI5" s="5">
         <v>2.6429848463502301</v>
       </c>
-      <c r="DJ5">
+      <c r="DJ5" s="5">
         <v>2.4100494057224799</v>
       </c>
-      <c r="DK5">
+      <c r="DK5" s="5">
         <v>2.1019796976527698</v>
       </c>
-      <c r="DL5">
+      <c r="DL5" s="5">
         <v>2.25993536378152</v>
       </c>
-      <c r="DM5">
+      <c r="DM5" s="5">
         <v>2.0212597231828</v>
       </c>
-      <c r="DN5">
+      <c r="DN5" s="5">
         <v>2.2631689357650902</v>
       </c>
-      <c r="DO5">
+      <c r="DO5" s="5">
         <v>2.1000739644970401</v>
       </c>
-      <c r="DP5">
+      <c r="DP5" s="5">
         <v>2.4253258493643099</v>
       </c>
-      <c r="DQ5">
+      <c r="DQ5" s="5">
         <v>1.57852969679893</v>
       </c>
-      <c r="DR5">
+      <c r="DR5" s="5">
         <v>1.8688923789885299</v>
       </c>
-      <c r="DS5">
+      <c r="DS5" s="5">
         <v>2.0213417458609801</v>
       </c>
-      <c r="DT5">
+      <c r="DT5" s="5">
         <v>1.96030123722431</v>
       </c>
-      <c r="DU5">
+      <c r="DU5" s="5">
         <v>5.7692307692307701</v>
       </c>
-      <c r="DV5">
+      <c r="DV5" s="5">
         <v>4</v>
       </c>
-      <c r="DW5">
+      <c r="DW5" s="5">
         <v>52</v>
       </c>
-      <c r="DX5">
+      <c r="DX5" s="5">
         <v>21.757322175732199</v>
       </c>
-      <c r="DY5">
+      <c r="DY5" s="5">
         <v>4</v>
       </c>
-      <c r="DZ5">
+      <c r="DZ5" s="5">
         <v>49.5</v>
       </c>
-      <c r="EA5">
+      <c r="EA5" s="5">
         <v>52.2222222222222</v>
       </c>
-      <c r="EB5">
+      <c r="EB5" s="5">
         <v>0.36538461538461497</v>
       </c>
     </row>
     <row r="6" spans="1:132" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6">
+      <c r="A6" s="5">
         <v>5</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="5">
         <v>6.1304347826086998</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="5">
         <v>5.5217391304347796</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="5">
         <v>6.6086956521739104</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="5">
         <v>5.9130434782608701</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="5">
         <v>0.217391304347826</v>
       </c>
-      <c r="G6">
+      <c r="G6" s="5">
         <v>0.34782608695652201</v>
       </c>
-      <c r="H6">
+      <c r="H6" s="5">
         <v>2.1739130434782599</v>
       </c>
-      <c r="I6">
+      <c r="I6" s="5">
         <v>4.6086956521739104</v>
       </c>
-      <c r="J6">
+      <c r="J6" s="5">
         <v>1.1739130434782601</v>
       </c>
-      <c r="K6">
+      <c r="K6" s="5">
         <v>1.26086956521739</v>
       </c>
-      <c r="L6">
+      <c r="L6" s="5">
         <v>2.10869565217391</v>
       </c>
-      <c r="M6">
+      <c r="M6" s="5">
         <v>0.90322580645161299</v>
       </c>
-      <c r="N6">
+      <c r="N6" s="5">
         <v>9.6774193548387094E-2</v>
       </c>
-      <c r="O6">
+      <c r="O6" s="5">
         <v>4.6304347826086998</v>
       </c>
-      <c r="P6">
+      <c r="P6" s="5">
         <v>6.1086956521739104</v>
       </c>
-      <c r="Q6">
+      <c r="Q6" s="5">
         <v>4.3478260869565197</v>
       </c>
-      <c r="R6">
+      <c r="R6" s="5">
         <v>4.4347826086956497</v>
       </c>
-      <c r="S6">
+      <c r="S6" s="5">
         <v>6.0217391304347796</v>
       </c>
-      <c r="T6">
+      <c r="T6" s="5">
         <v>5.3478260869565197</v>
       </c>
-      <c r="U6">
+      <c r="U6" s="5">
         <v>5.0869565217391299</v>
       </c>
-      <c r="V6">
+      <c r="V6" s="5">
         <v>5.5652173913043503</v>
       </c>
-      <c r="W6">
+      <c r="W6" s="5">
         <v>4.3695652173913002</v>
       </c>
-      <c r="X6">
+      <c r="X6" s="5">
         <v>5.2608695652173898</v>
       </c>
-      <c r="Y6">
+      <c r="Y6" s="5">
         <v>0.36956521739130399</v>
       </c>
-      <c r="Z6">
+      <c r="Z6" s="5">
         <v>0.36956521739130399</v>
       </c>
-      <c r="AA6">
+      <c r="AA6" s="5">
         <v>0.108695652173913</v>
       </c>
-      <c r="AB6">
+      <c r="AB6" s="5">
         <v>0.434782608695652</v>
       </c>
-      <c r="AC6">
+      <c r="AC6" s="5">
         <v>0.26086956521739102</v>
       </c>
-      <c r="AD6">
+      <c r="AD6" s="5">
         <v>0.282608695652174</v>
       </c>
-      <c r="AE6">
+      <c r="AE6" s="5">
         <v>8.6956521739130405E-2</v>
       </c>
-      <c r="AF6">
+      <c r="AF6" s="5">
         <v>0.26086956521739102</v>
       </c>
-      <c r="AG6">
+      <c r="AG6" s="5">
         <v>0.13043478260869601</v>
       </c>
-      <c r="AH6">
+      <c r="AH6" s="5">
         <v>0.173913043478261</v>
       </c>
-      <c r="AI6">
+      <c r="AI6" s="5">
         <v>0.26086956521739102</v>
       </c>
-      <c r="AJ6">
+      <c r="AJ6" s="5">
         <v>0.26086956521739102</v>
       </c>
-      <c r="AK6">
+      <c r="AK6" s="5">
         <v>0.19565217391304299</v>
       </c>
-      <c r="AL6">
+      <c r="AL6" s="5">
         <v>0.34782608695652201</v>
       </c>
-      <c r="AM6">
+      <c r="AM6" s="5">
         <v>6.5217391304347797E-2</v>
       </c>
-      <c r="AN6">
+      <c r="AN6" s="5">
         <v>1.0434782608695701</v>
       </c>
-      <c r="AO6">
+      <c r="AO6" s="5">
         <v>1.3043478260869601</v>
       </c>
-      <c r="AP6">
+      <c r="AP6" s="5">
         <v>0.91304347826086996</v>
       </c>
-      <c r="AQ6">
+      <c r="AQ6" s="5">
         <v>0.76086956521739102</v>
       </c>
-      <c r="AR6">
+      <c r="AR6" s="5">
         <v>1.9130434782608701</v>
       </c>
-      <c r="AS6">
+      <c r="AS6" s="5">
         <v>3.3260869565217401</v>
       </c>
-      <c r="AT6">
+      <c r="AT6" s="5">
         <v>3.2608695652173898</v>
       </c>
-      <c r="AU6">
+      <c r="AU6" s="5">
         <v>2.39130434782609</v>
       </c>
-      <c r="AV6">
+      <c r="AV6" s="5">
         <v>2.3478260869565202</v>
       </c>
-      <c r="AW6">
+      <c r="AW6" s="5">
         <v>1.4130434782608701</v>
       </c>
-      <c r="AX6">
+      <c r="AX6" s="5">
         <v>1.52173913043478</v>
       </c>
-      <c r="AY6">
+      <c r="AY6" s="5">
         <v>0.32608695652173902</v>
       </c>
-      <c r="AZ6">
+      <c r="AZ6" s="5">
         <v>7.3043478260869596</v>
       </c>
-      <c r="BA6">
+      <c r="BA6" s="5">
         <v>4.4347826086956497</v>
       </c>
-      <c r="BB6">
+      <c r="BB6" s="5">
         <v>4.6956521739130404</v>
       </c>
-      <c r="BC6">
+      <c r="BC6" s="5">
         <v>6.1956521739130404</v>
       </c>
-      <c r="BD6">
+      <c r="BD6" s="5">
         <v>3.0434782608695699</v>
       </c>
-      <c r="BE6">
+      <c r="BE6" s="5">
         <v>4.1086956521739104</v>
       </c>
-      <c r="BF6">
+      <c r="BF6" s="5">
         <v>2.6666666666666701</v>
       </c>
-      <c r="BG6">
+      <c r="BG6" s="5">
         <v>2.75</v>
       </c>
-      <c r="BH6">
+      <c r="BH6" s="5">
         <v>3</v>
       </c>
-      <c r="BI6">
+      <c r="BI6" s="5">
         <v>2.75</v>
       </c>
-      <c r="BJ6">
+      <c r="BJ6" s="5">
         <v>2.5</v>
       </c>
-      <c r="BK6">
+      <c r="BK6" s="5">
         <v>3</v>
       </c>
-      <c r="BL6">
+      <c r="BL6" s="5">
         <v>2.4</v>
       </c>
-      <c r="BM6">
+      <c r="BM6" s="5">
         <v>2.4545454545454501</v>
       </c>
-      <c r="BN6">
+      <c r="BN6" s="5">
         <v>2.6470588235294099</v>
       </c>
-      <c r="BO6">
+      <c r="BO6" s="5">
         <v>2.93333333333333</v>
       </c>
-      <c r="BP6">
+      <c r="BP6" s="5">
         <v>3.2</v>
       </c>
-      <c r="BQ6">
+      <c r="BQ6" s="5">
         <v>2.4444444444444402</v>
       </c>
-      <c r="BR6">
+      <c r="BR6" s="5">
         <v>3.2</v>
       </c>
-      <c r="BS6">
+      <c r="BS6" s="5">
         <v>2.8</v>
       </c>
-      <c r="BT6">
+      <c r="BT6" s="5">
         <v>2</v>
       </c>
-      <c r="BU6">
+      <c r="BU6" s="5">
         <v>2.4761904761904798</v>
       </c>
-      <c r="BV6">
+      <c r="BV6" s="5">
         <v>2.6666666666666701</v>
       </c>
-      <c r="BW6">
+      <c r="BW6" s="5">
         <v>2.75</v>
       </c>
-      <c r="BX6">
+      <c r="BX6" s="5">
         <v>2.5333333333333301</v>
       </c>
-      <c r="BY6">
+      <c r="BY6" s="5">
         <v>2.5714285714285698</v>
       </c>
-      <c r="BZ6">
+      <c r="BZ6" s="5">
         <v>3</v>
       </c>
-      <c r="CA6">
+      <c r="CA6" s="5">
         <v>0.23913043478260901</v>
       </c>
-      <c r="CB6">
+      <c r="CB6" s="5">
         <v>0.39130434782608697</v>
       </c>
-      <c r="CC6">
+      <c r="CC6" s="5">
         <v>0.19565217391304299</v>
       </c>
-      <c r="CD6">
+      <c r="CD6" s="5">
         <v>1.39130434782609</v>
       </c>
-      <c r="CE6">
+      <c r="CE6" s="5">
         <v>0.97826086956521696</v>
       </c>
-      <c r="CF6">
+      <c r="CF6" s="5">
         <v>1.3043478260869601</v>
       </c>
-      <c r="CG6">
+      <c r="CG6" s="5">
         <v>1.0652173913043499</v>
       </c>
-      <c r="CH6">
+      <c r="CH6" s="5">
         <v>1.39130434782609</v>
       </c>
-      <c r="CI6">
+      <c r="CI6" s="5">
         <v>1.5652173913043499</v>
       </c>
-      <c r="CJ6">
+      <c r="CJ6" s="5">
         <v>2.39130434782609</v>
       </c>
-      <c r="CK6">
+      <c r="CK6" s="5">
         <v>3.3478260869565202</v>
       </c>
-      <c r="CL6">
+      <c r="CL6" s="5">
         <v>2.3478260869565202</v>
       </c>
-      <c r="CM6">
+      <c r="CM6" s="5">
         <v>1.97826086956522</v>
       </c>
-      <c r="CN6">
+      <c r="CN6" s="5">
         <v>2.1304347826086998</v>
       </c>
-      <c r="CO6">
+      <c r="CO6" s="5">
         <v>0.97826086956521696</v>
       </c>
-      <c r="CP6">
+      <c r="CP6" s="5">
         <v>4.8695652173913002</v>
       </c>
-      <c r="CQ6">
+      <c r="CQ6" s="5">
         <v>4.0652173913043503</v>
       </c>
-      <c r="CR6">
+      <c r="CR6" s="5">
         <v>5.0869565217391299</v>
       </c>
-      <c r="CS6">
+      <c r="CS6" s="5">
         <v>4.5434782608695699</v>
       </c>
-      <c r="CT6">
+      <c r="CT6" s="5">
         <v>3.47826086956522</v>
       </c>
-      <c r="CU6">
+      <c r="CU6" s="5">
         <v>4.5652173913043503</v>
       </c>
-      <c r="CV6">
+      <c r="CV6" s="5">
         <v>0.32608695652173902</v>
       </c>
-      <c r="CW6">
+      <c r="CW6" s="5">
         <v>0.32608695652173902</v>
       </c>
-      <c r="CX6">
+      <c r="CX6" s="5">
         <v>0.32608695652173902</v>
       </c>
-      <c r="CY6">
+      <c r="CY6" s="5">
         <v>0.13043478260869601</v>
       </c>
-      <c r="CZ6">
+      <c r="CZ6" s="5">
         <v>0.39130434782608697</v>
       </c>
-      <c r="DA6">
+      <c r="DA6" s="5">
         <v>0.39130434782608697</v>
       </c>
-      <c r="DB6">
+      <c r="DB6" s="5">
         <v>4.5869565217391299</v>
       </c>
-      <c r="DC6">
+      <c r="DC6" s="5">
         <v>3.1304347826086998</v>
       </c>
-      <c r="DD6">
+      <c r="DD6" s="5">
         <v>2.39130434782609</v>
       </c>
-      <c r="DE6">
+      <c r="DE6" s="5">
         <v>4</v>
       </c>
-      <c r="DF6">
+      <c r="DF6" s="5">
         <v>2.9347826086956501</v>
       </c>
-      <c r="DG6">
+      <c r="DG6" s="5">
         <v>3.2391304347826102</v>
       </c>
-      <c r="DH6">
+      <c r="DH6" s="5">
         <v>3.02173913043478</v>
       </c>
-      <c r="DI6">
+      <c r="DI6" s="5">
         <v>2.4643374741200801</v>
       </c>
-      <c r="DJ6">
+      <c r="DJ6" s="5">
         <v>2.31390614216701</v>
       </c>
-      <c r="DK6">
+      <c r="DK6" s="5">
         <v>2.3689613526570099</v>
       </c>
-      <c r="DL6">
+      <c r="DL6" s="5">
         <v>2.1362577639751601</v>
       </c>
-      <c r="DM6">
+      <c r="DM6" s="5">
         <v>2.0125690131124898</v>
       </c>
-      <c r="DN6">
+      <c r="DN6" s="5">
         <v>2.22323153899241</v>
       </c>
-      <c r="DO6">
+      <c r="DO6" s="5">
         <v>2.14023464458247</v>
       </c>
-      <c r="DP6">
+      <c r="DP6" s="5">
         <v>2.2117408557625899</v>
       </c>
-      <c r="DQ6">
+      <c r="DQ6" s="5">
         <v>1.6976017943409201</v>
       </c>
-      <c r="DR6">
+      <c r="DR6" s="5">
         <v>1.9646652864044201</v>
       </c>
-      <c r="DS6">
+      <c r="DS6" s="5">
         <v>1.91444962042788</v>
       </c>
-      <c r="DT6">
+      <c r="DT6" s="5">
         <v>1.80578847481021</v>
       </c>
-      <c r="DU6">
+      <c r="DU6" s="5">
         <v>4.2173913043478297</v>
       </c>
-      <c r="DV6">
+      <c r="DV6" s="5">
         <v>5</v>
       </c>
-      <c r="DW6">
+      <c r="DW6" s="5">
         <v>46</v>
       </c>
-      <c r="DX6">
+      <c r="DX6" s="5">
         <v>19.2468619246862</v>
       </c>
-      <c r="DY6">
+      <c r="DY6" s="5">
         <v>5</v>
       </c>
-      <c r="DZ6">
+      <c r="DZ6" s="5">
         <v>56.3</v>
       </c>
-      <c r="EA6">
+      <c r="EA6" s="5">
         <v>41.40625</v>
       </c>
-      <c r="EB6">
+      <c r="EB6" s="5">
         <v>0.32608695652173902</v>
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="B2:E6">
+    <cfRule type="colorScale" priority="7">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F2:G6">
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Y2:AI6">
+    <cfRule type="colorScale" priority="5">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="DB2:DH6">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="CY2:DA6">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="CV2:CX6">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BF2:BZ6">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CF31949-2F47-4A69-BAB3-74AB649EE89C}">
+  <dimension ref="A1:F6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <cols>
+    <col min="1" max="1" width="37.89453125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A1" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B1">
+        <v>70</v>
+      </c>
+      <c r="C1">
+        <v>3</v>
+      </c>
+      <c r="D1">
+        <v>92</v>
+      </c>
+      <c r="E1">
+        <v>94</v>
+      </c>
+      <c r="F1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A2" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="B2">
+        <v>91</v>
+      </c>
+      <c r="C2">
+        <v>42</v>
+      </c>
+      <c r="D2">
+        <v>79</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="29.1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A3" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="B3">
+        <v>41</v>
+      </c>
+      <c r="C3">
+        <v>73</v>
+      </c>
+      <c r="D3">
+        <v>50</v>
+      </c>
+      <c r="E3">
+        <v>71</v>
+      </c>
+      <c r="F3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="29.1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A4" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>85</v>
+      </c>
+      <c r="D4">
+        <v>98</v>
+      </c>
+      <c r="E4">
+        <v>89</v>
+      </c>
+      <c r="F4">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A5" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="B5">
+        <v>22</v>
+      </c>
+      <c r="C5">
+        <v>39</v>
+      </c>
+      <c r="D5">
+        <v>42</v>
+      </c>
+      <c r="E5">
+        <v>50</v>
+      </c>
+      <c r="F5">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A6" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="B6">
+        <v>11</v>
+      </c>
+      <c r="C6">
+        <v>55</v>
+      </c>
+      <c r="D6">
+        <v>57</v>
+      </c>
+      <c r="E6">
+        <v>50</v>
+      </c>
+      <c r="F6">
+        <v>35</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="B1:F6">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>